--- a/data/CONFRONTO_VERSIONI.xlsx
+++ b/data/CONFRONTO_VERSIONI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D3C2E9-C11C-408C-9918-E7BCF1F966EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{79D3C2E9-C11C-408C-9918-E7BCF1F966EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BF56508-CED5-48CA-A94D-566186C18DD0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="REAL" sheetId="11" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="548">
   <si>
     <t>AB</t>
   </si>
@@ -878,138 +878,12 @@
     <t>6684.944162,+/-799.456380</t>
   </si>
   <si>
-    <t>17.906765,+/-0.476109</t>
-  </si>
-  <si>
-    <t>0.027393,+/-0.000640</t>
-  </si>
-  <si>
-    <t>33.507119,+/-0.927547</t>
-  </si>
-  <si>
-    <t>0.041680,+/-0.000953</t>
-  </si>
-  <si>
-    <t>67.539934,+/-2.881525</t>
-  </si>
-  <si>
-    <t>0.088792,+/-0.002041</t>
-  </si>
-  <si>
-    <t>144.761823,+/-6.291177</t>
-  </si>
-  <si>
-    <t>0.349264,+/-0.007850</t>
-  </si>
-  <si>
-    <t>0.050026,+/-0.000055</t>
-  </si>
-  <si>
-    <t>1002.059066,+/-66.437966</t>
-  </si>
-  <si>
-    <t>0.072007,+/-0.000097</t>
-  </si>
-  <si>
-    <t>959.409761,+/-63.425014</t>
-  </si>
-  <si>
-    <t>0.161097,+/-0.000310</t>
-  </si>
-  <si>
-    <t>997.192318,+/-66.653736</t>
-  </si>
-  <si>
-    <t>0.574853,+/-0.001421</t>
-  </si>
-  <si>
-    <t>918.586758,+/-60.895430</t>
-  </si>
-  <si>
     <t>0.000068,+/-0.000002</t>
   </si>
   <si>
-    <t>1002.009108,+/-66.437941</t>
-  </si>
-  <si>
-    <t>0.000059,+/-0.000002</t>
-  </si>
-  <si>
-    <t>959.337812,+/-63.425051</t>
-  </si>
-  <si>
-    <t>0.000057,+/-0.000002</t>
-  </si>
-  <si>
-    <t>997.031278,+/-66.653570</t>
-  </si>
-  <si>
-    <t>0.000099,+/-0.000005</t>
-  </si>
-  <si>
-    <t>918.012005,+/-60.896146</t>
-  </si>
-  <si>
-    <t>0.049958,+/-0.000056</t>
-  </si>
-  <si>
-    <t>0.071949,+/-0.000097</t>
-  </si>
-  <si>
-    <t>0.161040,+/-0.000309</t>
-  </si>
-  <si>
-    <t>0.574754,+/-0.001420</t>
-  </si>
-  <si>
-    <t>1.001364,+/-0.000031</t>
-  </si>
-  <si>
-    <t>20023.183067,+/-1322.942792</t>
-  </si>
-  <si>
-    <t>1.000818,+/-0.000034</t>
-  </si>
-  <si>
-    <t>13359.706613,+/-883.608585</t>
-  </si>
-  <si>
-    <t>1.000356,+/-0.000012</t>
-  </si>
-  <si>
-    <t>6169.723244,+/-411.995580</t>
-  </si>
-  <si>
-    <t>1.000177,+/-0.000008</t>
-  </si>
-  <si>
-    <t>1605.615741,+/-107.695190</t>
-  </si>
-  <si>
-    <t>0.001359,+/-0.000032</t>
-  </si>
-  <si>
-    <t>20022.183062,+/-1322.942792</t>
-  </si>
-  <si>
-    <t>0.000813,+/-0.000034</t>
-  </si>
-  <si>
-    <t>13358.706608,+/-883.608586</t>
-  </si>
-  <si>
     <t>0.000352,+/-0.000013</t>
   </si>
   <si>
-    <t>6168.723239,+/-411.995580</t>
-  </si>
-  <si>
-    <t>0.000172,+/-0.000008</t>
-  </si>
-  <si>
-    <t>1604.615737,+/-107.695191</t>
-  </si>
-  <si>
     <t>0.009410,+/-0.000000</t>
   </si>
   <si>
@@ -1356,6 +1230,483 @@
   </si>
   <si>
     <t>172.920673,+/-25.154627</t>
+  </si>
+  <si>
+    <t>18.820131,+/-0.167493</t>
+  </si>
+  <si>
+    <t>0.023754,+/-0.000005</t>
+  </si>
+  <si>
+    <t>33.858655,+/-0.317220</t>
+  </si>
+  <si>
+    <t>0.036955,+/-0.000029</t>
+  </si>
+  <si>
+    <t>39.351068,+/-1.189536</t>
+  </si>
+  <si>
+    <t>0.077140,+/-0.000043</t>
+  </si>
+  <si>
+    <t>118.897982,+/-3.170431</t>
+  </si>
+  <si>
+    <t>0.313077,+/-0.000267</t>
+  </si>
+  <si>
+    <t>0.040567,+/-0.000633</t>
+  </si>
+  <si>
+    <t>357.592161,+/-22.601821</t>
+  </si>
+  <si>
+    <t>0.062997,+/-0.000778</t>
+  </si>
+  <si>
+    <t>460.076237,+/-29.650828</t>
+  </si>
+  <si>
+    <t>0.195510,+/-0.000234</t>
+  </si>
+  <si>
+    <t>1333.428791,+/-87.368928</t>
+  </si>
+  <si>
+    <t>0.730260,+/-0.001532</t>
+  </si>
+  <si>
+    <t>1305.637873,+/-85.652780</t>
+  </si>
+  <si>
+    <t>0.000069,+/-0.000001</t>
+  </si>
+  <si>
+    <t>357.551663,+/-22.601523</t>
+  </si>
+  <si>
+    <t>0.000103,+/-0.000002</t>
+  </si>
+  <si>
+    <t>460.013343,+/-29.650498</t>
+  </si>
+  <si>
+    <t>0.000838,+/-0.000027</t>
+  </si>
+  <si>
+    <t>1333.234118,+/-87.368971</t>
+  </si>
+  <si>
+    <t>0.005864,+/-0.000316</t>
+  </si>
+  <si>
+    <t>1304.913477,+/-85.652453</t>
+  </si>
+  <si>
+    <t>0.040498,+/-0.000633</t>
+  </si>
+  <si>
+    <t>0.062894,+/-0.000780</t>
+  </si>
+  <si>
+    <t>0.194672,+/-0.000241</t>
+  </si>
+  <si>
+    <t>0.724396,+/-0.001441</t>
+  </si>
+  <si>
+    <t>1.001733,+/-0.000042</t>
+  </si>
+  <si>
+    <t>8732.718413,+/-535.749395</t>
+  </si>
+  <si>
+    <t>1.001661,+/-0.000047</t>
+  </si>
+  <si>
+    <t>7248.399349,+/-456.651434</t>
+  </si>
+  <si>
+    <t>1.004310,+/-0.000137</t>
+  </si>
+  <si>
+    <t>6855.296325,+/-449.336210</t>
+  </si>
+  <si>
+    <t>1.008091,+/-0.000436</t>
+  </si>
+  <si>
+    <t>1799.650588,+/-118.074264</t>
+  </si>
+  <si>
+    <t>0.001728,+/-0.000042</t>
+  </si>
+  <si>
+    <t>8731.718409,+/-535.749396</t>
+  </si>
+  <si>
+    <t>0.001657,+/-0.000046</t>
+  </si>
+  <si>
+    <t>7247.399344,+/-456.651435</t>
+  </si>
+  <si>
+    <t>0.004305,+/-0.000138</t>
+  </si>
+  <si>
+    <t>6854.296321,+/-449.336210</t>
+  </si>
+  <si>
+    <t>0.008087,+/-0.000436</t>
+  </si>
+  <si>
+    <t>1798.650583,+/-118.074265</t>
+  </si>
+  <si>
+    <t>0.068797,+/-0.000030</t>
+  </si>
+  <si>
+    <t>0.087495,+/-0.000070</t>
+  </si>
+  <si>
+    <t>0.278202,+/-0.000308</t>
+  </si>
+  <si>
+    <t>0.937549,+/-0.002864</t>
+  </si>
+  <si>
+    <t>433.743576,+/-126.904959</t>
+  </si>
+  <si>
+    <t>212.057910,+/-67.927223</t>
+  </si>
+  <si>
+    <t>0.372527,+/-0.291970</t>
+  </si>
+  <si>
+    <t>18.338724,+/-0.430583</t>
+  </si>
+  <si>
+    <t>0.027542,+/-0.000585</t>
+  </si>
+  <si>
+    <t>32.554669,+/-0.917668</t>
+  </si>
+  <si>
+    <t>0.041811,+/-0.000875</t>
+  </si>
+  <si>
+    <t>69.055962,+/-3.030271</t>
+  </si>
+  <si>
+    <t>0.089074,+/-0.001865</t>
+  </si>
+  <si>
+    <t>130.898519,+/-5.940377</t>
+  </si>
+  <si>
+    <t>0.342317,+/-0.007923</t>
+  </si>
+  <si>
+    <t>0.051829,+/-0.000041</t>
+  </si>
+  <si>
+    <t>955.851363,+/-67.472107</t>
+  </si>
+  <si>
+    <t>0.073246,+/-0.000092</t>
+  </si>
+  <si>
+    <t>893.506992,+/-63.094818</t>
+  </si>
+  <si>
+    <t>0.164545,+/-0.000383</t>
+  </si>
+  <si>
+    <t>942.257255,+/-66.742252</t>
+  </si>
+  <si>
+    <t>0.382874,+/-0.008703</t>
+  </si>
+  <si>
+    <t>22.557051,+/-1.266756</t>
+  </si>
+  <si>
+    <t>0.000259,+/-0.000006</t>
+  </si>
+  <si>
+    <t>955.799793,+/-67.472122</t>
+  </si>
+  <si>
+    <t>0.000100,+/-0.000003</t>
+  </si>
+  <si>
+    <t>893.433846,+/-63.094865</t>
+  </si>
+  <si>
+    <t>0.000087,+/-0.000004</t>
+  </si>
+  <si>
+    <t>942.092797,+/-66.742184</t>
+  </si>
+  <si>
+    <t>0.000078,+/-0.000004</t>
+  </si>
+  <si>
+    <t>22.174254,+/-1.261777</t>
+  </si>
+  <si>
+    <t>0.051570,+/-0.000037</t>
+  </si>
+  <si>
+    <t>0.073146,+/-0.000090</t>
+  </si>
+  <si>
+    <t>0.164458,+/-0.000380</t>
+  </si>
+  <si>
+    <t>0.382796,+/-0.008705</t>
+  </si>
+  <si>
+    <t>1.005021,+/-0.000109</t>
+  </si>
+  <si>
+    <t>18554.696408,+/-1313.445550</t>
+  </si>
+  <si>
+    <t>1.001372,+/-0.000038</t>
+  </si>
+  <si>
+    <t>12243.467313,+/-869.192398</t>
+  </si>
+  <si>
+    <t>1.000534,+/-0.000021</t>
+  </si>
+  <si>
+    <t>5721.831648,+/-407.963731</t>
+  </si>
+  <si>
+    <t>1.000218,+/-0.000012</t>
+  </si>
+  <si>
+    <t>58.253493,+/-2.899239</t>
+  </si>
+  <si>
+    <t>0.005017,+/-0.000108</t>
+  </si>
+  <si>
+    <t>18553.696404,+/-1313.445550</t>
+  </si>
+  <si>
+    <t>0.001368,+/-0.000038</t>
+  </si>
+  <si>
+    <t>12242.467309,+/-869.192399</t>
+  </si>
+  <si>
+    <t>0.000530,+/-0.000021</t>
+  </si>
+  <si>
+    <t>5720.831643,+/-407.963732</t>
+  </si>
+  <si>
+    <t>0.000214,+/-0.000013</t>
+  </si>
+  <si>
+    <t>57.253489,+/-2.899240</t>
+  </si>
+  <si>
+    <t>0.010140,+/-0.000000</t>
+  </si>
+  <si>
+    <t>0.082811,+/-0.000044</t>
+  </si>
+  <si>
+    <t>0.105204,+/-0.000099</t>
+  </si>
+  <si>
+    <t>0.334888,+/-0.000338</t>
+  </si>
+  <si>
+    <t>1.147017,+/-0.003754</t>
+  </si>
+  <si>
+    <t>0.016165,+/-0.027087</t>
+  </si>
+  <si>
+    <t>0.020552,+/-0.032145</t>
+  </si>
+  <si>
+    <t>0.004047,+/-0.006428</t>
+  </si>
+  <si>
+    <t>0.599098,+/-0.134936</t>
+  </si>
+  <si>
+    <t>746.366385,+/-2.914710</t>
+  </si>
+  <si>
+    <t>43.159385,+/-1.456315</t>
+  </si>
+  <si>
+    <t>17.866809,+/-0.472035</t>
+  </si>
+  <si>
+    <t>0.027362,+/-0.000631</t>
+  </si>
+  <si>
+    <t>33.427146,+/-0.918869</t>
+  </si>
+  <si>
+    <t>0.041629,+/-0.000942</t>
+  </si>
+  <si>
+    <t>67.458916,+/-2.891160</t>
+  </si>
+  <si>
+    <t>0.088446,+/-0.002021</t>
+  </si>
+  <si>
+    <t>144.333410,+/-6.265642</t>
+  </si>
+  <si>
+    <t>0.350511,+/-0.007974</t>
+  </si>
+  <si>
+    <t>0.050136,+/-0.000057</t>
+  </si>
+  <si>
+    <t>1001.654117,+/-66.921810</t>
+  </si>
+  <si>
+    <t>0.072034,+/-0.000111</t>
+  </si>
+  <si>
+    <t>957.251136,+/-63.653846</t>
+  </si>
+  <si>
+    <t>0.159967,+/-0.000379</t>
+  </si>
+  <si>
+    <t>993.553887,+/-66.788939</t>
+  </si>
+  <si>
+    <t>0.570764,+/-0.001633</t>
+  </si>
+  <si>
+    <t>905.799234,+/-61.046612</t>
+  </si>
+  <si>
+    <t>1001.604050,+/-66.921791</t>
+  </si>
+  <si>
+    <t>0.000059,+/-0.000003</t>
+  </si>
+  <si>
+    <t>957.179160,+/-63.653910</t>
+  </si>
+  <si>
+    <t>0.000056,+/-0.000002</t>
+  </si>
+  <si>
+    <t>993.393976,+/-66.788720</t>
+  </si>
+  <si>
+    <t>0.000098,+/-0.000005</t>
+  </si>
+  <si>
+    <t>905.228568,+/-61.045979</t>
+  </si>
+  <si>
+    <t>0.050068,+/-0.000058</t>
+  </si>
+  <si>
+    <t>0.071976,+/-0.000109</t>
+  </si>
+  <si>
+    <t>0.159911,+/-0.000377</t>
+  </si>
+  <si>
+    <t>0.570666,+/-0.001633</t>
+  </si>
+  <si>
+    <t>1.001366,+/-0.000031</t>
+  </si>
+  <si>
+    <t>19979.769017,+/-1331.300842</t>
+  </si>
+  <si>
+    <t>1.000820,+/-0.000034</t>
+  </si>
+  <si>
+    <t>13341.840366,+/-889.006732</t>
+  </si>
+  <si>
+    <t>1.000357,+/-0.000012</t>
+  </si>
+  <si>
+    <t>6183.145236,+/-415.002467</t>
+  </si>
+  <si>
+    <t>1.000178,+/-0.000008</t>
+  </si>
+  <si>
+    <t>1581.140947,+/-106.062699</t>
+  </si>
+  <si>
+    <t>0.001361,+/-0.000031</t>
+  </si>
+  <si>
+    <t>19978.769012,+/-1331.300843</t>
+  </si>
+  <si>
+    <t>0.000815,+/-0.000034</t>
+  </si>
+  <si>
+    <t>13340.840361,+/-889.006733</t>
+  </si>
+  <si>
+    <t>6182.145231,+/-415.002468</t>
+  </si>
+  <si>
+    <t>0.000173,+/-0.000008</t>
+  </si>
+  <si>
+    <t>1580.140941,+/-106.062700</t>
+  </si>
+  <si>
+    <t>0.009455,+/-0.000000</t>
+  </si>
+  <si>
+    <t>0.082822,+/-0.000042</t>
+  </si>
+  <si>
+    <t>0.105211,+/-0.000093</t>
+  </si>
+  <si>
+    <t>0.334907,+/-0.000316</t>
+  </si>
+  <si>
+    <t>1.147517,+/-0.003508</t>
+  </si>
+  <si>
+    <t>0.295573,+/-0.302875</t>
+  </si>
+  <si>
+    <t>0.379164,+/-0.363008</t>
+  </si>
+  <si>
+    <t>0.084400,+/-0.083133</t>
+  </si>
+  <si>
+    <t>0.001251,+/-0.001002</t>
+  </si>
+  <si>
+    <t>2126.627884,+/-19.297079</t>
+  </si>
+  <si>
+    <t>42.779000,+/-1.372047</t>
   </si>
 </sst>
 </file>
@@ -2519,8 +2870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFBA70C-A8ED-4C94-8FF2-9C7F6AB93B1B}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2575,7 +2926,7 @@
         <v>164</v>
       </c>
       <c r="F3">
-        <v>241</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2589,7 +2940,7 @@
         <v>119260</v>
       </c>
       <c r="F4">
-        <v>160593</v>
+        <v>153587</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2606,7 +2957,7 @@
         <v>121</v>
       </c>
       <c r="F5">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2620,7 +2971,7 @@
         <v>84724</v>
       </c>
       <c r="F6">
-        <v>106205</v>
+        <v>98882</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2637,7 +2988,7 @@
         <v>52</v>
       </c>
       <c r="F7">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2651,7 +3002,7 @@
         <v>36100</v>
       </c>
       <c r="F8">
-        <v>49755</v>
+        <v>47340</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2668,7 +3019,7 @@
         <v>16</v>
       </c>
       <c r="F9">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2682,7 +3033,7 @@
         <v>10730</v>
       </c>
       <c r="F10">
-        <v>12767</v>
+        <v>11638</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2716,7 +3067,7 @@
         <v>12481</v>
       </c>
       <c r="F12">
-        <v>15195</v>
+        <v>10620</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2747,7 +3098,7 @@
         <v>7932</v>
       </c>
       <c r="F14">
-        <v>7463</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2778,7 +3129,7 @@
         <v>5497</v>
       </c>
       <c r="F16">
-        <v>4707</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2809,7 +3160,7 @@
         <v>1469</v>
       </c>
       <c r="F18">
-        <v>641</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2843,7 +3194,7 @@
         <v>15988</v>
       </c>
       <c r="F20">
-        <v>25308</v>
+        <v>27392</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -2874,7 +3225,7 @@
         <v>10725</v>
       </c>
       <c r="F22">
-        <v>13985</v>
+        <v>16852</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2905,7 +3256,7 @@
         <v>6347</v>
       </c>
       <c r="F24">
-        <v>7604</v>
+        <v>12034</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2936,7 +3287,7 @@
         <v>1755</v>
       </c>
       <c r="F26">
-        <v>1320</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2950,13 +3301,13 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="E27" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="F27" t="s">
-        <v>271</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2964,13 +3315,13 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="E28" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="F28" t="s">
-        <v>272</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2981,13 +3332,13 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="E29" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="F29" t="s">
-        <v>273</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2995,13 +3346,13 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="E30" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="F30" t="s">
-        <v>274</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3012,13 +3363,13 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="E31" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="F31" t="s">
-        <v>275</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3026,13 +3377,13 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="E32" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="F32" t="s">
-        <v>276</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3043,13 +3394,13 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>381</v>
+        <v>339</v>
       </c>
       <c r="E33" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="F33" t="s">
-        <v>277</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3057,13 +3408,13 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="E34" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3077,13 +3428,13 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="E35" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="F35" t="s">
-        <v>279</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3091,13 +3442,13 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="E36" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="F36" t="s">
-        <v>280</v>
+        <v>398</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3108,13 +3459,13 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="E37" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="F37" t="s">
-        <v>281</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3122,13 +3473,13 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="E38" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="F38" t="s">
-        <v>282</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3139,13 +3490,13 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="E39" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="F39" t="s">
-        <v>283</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3153,13 +3504,13 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
       <c r="E40" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="F40" t="s">
-        <v>284</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3170,13 +3521,13 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="E41" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="F41" t="s">
-        <v>285</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -3184,13 +3535,13 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="E42" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="F42" t="s">
-        <v>286</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3204,13 +3555,13 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>391</v>
+        <v>349</v>
       </c>
       <c r="E43" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="F43" t="s">
-        <v>287</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3218,13 +3569,13 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
       <c r="E44" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="F44" t="s">
-        <v>288</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3235,13 +3586,13 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="E45" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="F45" t="s">
-        <v>289</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3249,13 +3600,13 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="E46" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="F46" t="s">
-        <v>290</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3266,13 +3617,13 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="E47" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="F47" t="s">
-        <v>291</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3280,13 +3631,13 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="E48" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="F48" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3297,13 +3648,13 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="E49" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="F49" t="s">
-        <v>293</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3311,13 +3662,13 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="E50" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="F50" t="s">
-        <v>294</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3328,13 +3679,13 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="E51" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="F51" t="s">
-        <v>295</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3342,13 +3693,13 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="E52" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="F52" t="s">
-        <v>296</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3356,13 +3707,13 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="E53" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="F53" t="s">
-        <v>297</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -3370,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="E54" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="F54" t="s">
-        <v>298</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3390,13 +3741,13 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="E55" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="F55" t="s">
-        <v>299</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -3404,13 +3755,13 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="E56" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="F56" t="s">
-        <v>300</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -3421,13 +3772,13 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>405</v>
+        <v>363</v>
       </c>
       <c r="E57" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="F57" t="s">
-        <v>301</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -3435,13 +3786,13 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="E58" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="F58" t="s">
-        <v>302</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -3452,13 +3803,13 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="E59" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="F59" t="s">
-        <v>303</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -3466,13 +3817,13 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="E60" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="F60" t="s">
-        <v>304</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -3483,13 +3834,13 @@
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="E61" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="F61" t="s">
-        <v>305</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -3497,13 +3848,13 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="E62" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="F62" t="s">
-        <v>306</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -3517,13 +3868,13 @@
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="E63" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="F63" t="s">
-        <v>307</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -3531,13 +3882,13 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="E64" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="F64" t="s">
-        <v>308</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -3548,13 +3899,13 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="E65" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="F65" t="s">
-        <v>309</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -3562,13 +3913,13 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="E66" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="F66" t="s">
-        <v>310</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3579,13 +3930,13 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="E67" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="F67" t="s">
-        <v>311</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -3593,13 +3944,13 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="E68" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="F68" t="s">
-        <v>312</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -3610,13 +3961,13 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="E69" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="F69" t="s">
-        <v>313</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -3624,13 +3975,13 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="E70" t="s">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="F70" t="s">
-        <v>314</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -3638,13 +3989,13 @@
         <v>41</v>
       </c>
       <c r="D71" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="E71" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="F71" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -3683,6 +4034,9 @@
       <c r="E74">
         <v>82091</v>
       </c>
+      <c r="F74">
+        <v>91943</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
@@ -3694,6 +4048,9 @@
       <c r="E75">
         <v>63585</v>
       </c>
+      <c r="F75">
+        <v>72086</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
@@ -3705,6 +4062,9 @@
       <c r="E76">
         <v>21438</v>
       </c>
+      <c r="F76">
+        <v>22775</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
@@ -3715,6 +4075,9 @@
       </c>
       <c r="E77">
         <v>6088</v>
+      </c>
+      <c r="F77">
+        <v>6650</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -3730,6 +4093,9 @@
       <c r="E78">
         <v>95235</v>
       </c>
+      <c r="F78">
+        <v>74596</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
@@ -3741,6 +4107,9 @@
       <c r="E79">
         <v>40273</v>
       </c>
+      <c r="F79">
+        <v>32697</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
@@ -3752,6 +4121,9 @@
       <c r="E80">
         <v>13201</v>
       </c>
+      <c r="F80">
+        <v>9830</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
@@ -3762,6 +4134,9 @@
       </c>
       <c r="E81">
         <v>1459</v>
+      </c>
+      <c r="F81">
+        <v>1947</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -3777,6 +4152,9 @@
       <c r="E82">
         <v>4227</v>
       </c>
+      <c r="F82">
+        <v>1869</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
@@ -3788,6 +4166,9 @@
       <c r="E83">
         <v>3154</v>
       </c>
+      <c r="F83">
+        <v>1650</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
@@ -3799,6 +4180,9 @@
       <c r="E84">
         <v>2505</v>
       </c>
+      <c r="F84">
+        <v>335</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
@@ -3809,6 +4193,9 @@
       </c>
       <c r="E85">
         <v>6</v>
+      </c>
+      <c r="F85">
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -3819,10 +4206,13 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="E86" t="s">
-        <v>364</v>
+        <v>322</v>
+      </c>
+      <c r="F86" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -3830,10 +4220,13 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="E87" t="s">
-        <v>365</v>
+        <v>323</v>
+      </c>
+      <c r="F87" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -3841,10 +4234,13 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="E88" t="s">
-        <v>366</v>
+        <v>324</v>
+      </c>
+      <c r="F88" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -3852,10 +4248,13 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="E89" t="s">
-        <v>367</v>
+        <v>325</v>
+      </c>
+      <c r="F89" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -3866,10 +4265,13 @@
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="E90" t="s">
-        <v>368</v>
+        <v>326</v>
+      </c>
+      <c r="F90" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -3877,10 +4279,13 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="E91" t="s">
-        <v>369</v>
+        <v>327</v>
+      </c>
+      <c r="F91" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3888,10 +4293,13 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="E92" t="s">
-        <v>370</v>
+        <v>328</v>
+      </c>
+      <c r="F92" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -3899,10 +4307,13 @@
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>427</v>
+        <v>385</v>
       </c>
       <c r="E93" t="s">
-        <v>371</v>
+        <v>329</v>
+      </c>
+      <c r="F93" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4060,13 +4471,13 @@
         <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="E104" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="F104" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -4153,13 +4564,13 @@
         <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="E111" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="F111" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="G111" s="9"/>
     </row>
@@ -4168,13 +4579,13 @@
         <v>25</v>
       </c>
       <c r="D112" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="E112" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="F112" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="G112" s="9"/>
     </row>
@@ -4211,8 +4622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B0CFC0-6B65-4A53-A15E-ECBF83434F62}">
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4262,6 +4673,9 @@
       <c r="E3">
         <v>179</v>
       </c>
+      <c r="F3">
+        <v>227</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
@@ -4272,6 +4686,9 @@
       </c>
       <c r="E4">
         <v>131959</v>
+      </c>
+      <c r="F4">
+        <v>152041</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4287,6 +4704,9 @@
       <c r="E5">
         <v>134</v>
       </c>
+      <c r="F5">
+        <v>121</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
@@ -4297,6 +4717,9 @@
       </c>
       <c r="E6">
         <v>94704</v>
+      </c>
+      <c r="F6">
+        <v>100509</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4312,6 +4735,9 @@
       <c r="E7">
         <v>62</v>
       </c>
+      <c r="F7">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
@@ -4323,6 +4749,9 @@
       <c r="E8">
         <v>39946</v>
       </c>
+      <c r="F8">
+        <v>47151</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
@@ -4337,6 +4766,9 @@
       <c r="E9">
         <v>16</v>
       </c>
+      <c r="F9">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
@@ -4347,6 +4779,9 @@
       </c>
       <c r="E10">
         <v>12107</v>
+      </c>
+      <c r="F10">
+        <v>11905</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4365,6 +4800,9 @@
       <c r="E11">
         <v>1</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
@@ -4375,6 +4813,9 @@
       </c>
       <c r="E12">
         <v>16221</v>
+      </c>
+      <c r="F12">
+        <v>14571</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4390,6 +4831,9 @@
       <c r="E13">
         <v>0</v>
       </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
@@ -4400,6 +4844,9 @@
       </c>
       <c r="E14">
         <v>8211</v>
+      </c>
+      <c r="F14">
+        <v>6975</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -4415,6 +4862,9 @@
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
@@ -4426,8 +4876,11 @@
       <c r="E16">
         <v>5042</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -4440,8 +4893,11 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -4451,8 +4907,11 @@
       <c r="E18">
         <v>849</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -4468,8 +4927,11 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>7</v>
       </c>
@@ -4479,8 +4941,11 @@
       <c r="E20">
         <v>20201</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>24236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -4493,8 +4958,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>7</v>
       </c>
@@ -4504,8 +4972,11 @@
       <c r="E22">
         <v>10930</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>13332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>1</v>
       </c>
@@ -4518,8 +4989,11 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>7</v>
       </c>
@@ -4529,8 +5003,11 @@
       <c r="E24">
         <v>5820</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>7122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -4543,8 +5020,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>7</v>
       </c>
@@ -4554,8 +5034,11 @@
       <c r="E26">
         <v>1006</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -4571,8 +5054,11 @@
       <c r="E27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>7</v>
       </c>
@@ -4582,8 +5068,11 @@
       <c r="E28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -4596,8 +5085,11 @@
       <c r="E29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>7</v>
       </c>
@@ -4607,8 +5099,11 @@
       <c r="E30" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -4621,8 +5116,11 @@
       <c r="E31" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>7</v>
       </c>
@@ -4632,8 +5130,11 @@
       <c r="E32" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>0</v>
       </c>
@@ -4646,8 +5147,11 @@
       <c r="E33" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>7</v>
       </c>
@@ -4657,8 +5161,11 @@
       <c r="E34" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -4674,8 +5181,11 @@
       <c r="E35" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>7</v>
       </c>
@@ -4685,8 +5195,11 @@
       <c r="E36" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>2</v>
       </c>
@@ -4699,8 +5212,11 @@
       <c r="E37" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>7</v>
       </c>
@@ -4710,8 +5226,11 @@
       <c r="E38" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>1</v>
       </c>
@@ -4724,8 +5243,11 @@
       <c r="E39" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>7</v>
       </c>
@@ -4735,8 +5257,11 @@
       <c r="E40" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -4749,8 +5274,11 @@
       <c r="E41" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>7</v>
       </c>
@@ -4760,8 +5288,11 @@
       <c r="E42" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -4777,8 +5308,11 @@
       <c r="E43" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>7</v>
       </c>
@@ -4788,8 +5322,11 @@
       <c r="E44" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>2</v>
       </c>
@@ -4802,8 +5339,11 @@
       <c r="E45" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>7</v>
       </c>
@@ -4813,8 +5353,11 @@
       <c r="E46" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>1</v>
       </c>
@@ -4827,8 +5370,11 @@
       <c r="E47" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>7</v>
       </c>
@@ -4838,8 +5384,11 @@
       <c r="E48" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>0</v>
       </c>
@@ -4852,8 +5401,11 @@
       <c r="E49" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>7</v>
       </c>
@@ -4863,8 +5415,11 @@
       <c r="E50" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -4877,8 +5432,11 @@
       <c r="E51" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>2</v>
       </c>
@@ -4888,8 +5446,11 @@
       <c r="E52" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>1</v>
       </c>
@@ -4899,8 +5460,11 @@
       <c r="E53" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>0</v>
       </c>
@@ -4910,8 +5474,11 @@
       <c r="E54" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -4927,8 +5494,11 @@
       <c r="E55" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>7</v>
       </c>
@@ -4938,8 +5508,11 @@
       <c r="E56" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>2</v>
       </c>
@@ -4952,8 +5525,11 @@
       <c r="E57" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>7</v>
       </c>
@@ -4963,8 +5539,11 @@
       <c r="E58" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>1</v>
       </c>
@@ -4977,8 +5556,11 @@
       <c r="E59" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>7</v>
       </c>
@@ -4988,8 +5570,11 @@
       <c r="E60" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>0</v>
       </c>
@@ -5002,8 +5587,11 @@
       <c r="E61" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>7</v>
       </c>
@@ -5013,8 +5601,11 @@
       <c r="E62" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -5030,8 +5621,11 @@
       <c r="E63" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>7</v>
       </c>
@@ -5040,6 +5634,9 @@
       </c>
       <c r="E64" t="s">
         <v>91</v>
+      </c>
+      <c r="F64" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -5055,6 +5652,9 @@
       <c r="E65" t="s">
         <v>92</v>
       </c>
+      <c r="F65" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
@@ -5065,6 +5665,9 @@
       </c>
       <c r="E66" t="s">
         <v>93</v>
+      </c>
+      <c r="F66" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -5080,6 +5683,9 @@
       <c r="E67" t="s">
         <v>94</v>
       </c>
+      <c r="F67" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
@@ -5091,6 +5697,9 @@
       <c r="E68" t="s">
         <v>95</v>
       </c>
+      <c r="F68" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
@@ -5105,6 +5714,9 @@
       <c r="E69" t="s">
         <v>96</v>
       </c>
+      <c r="F69" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
@@ -5115,6 +5727,9 @@
       </c>
       <c r="E70" t="s">
         <v>97</v>
+      </c>
+      <c r="F70" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -5126,6 +5741,9 @@
       </c>
       <c r="E71" t="s">
         <v>98</v>
+      </c>
+      <c r="F71" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -5164,6 +5782,9 @@
       <c r="E74">
         <v>54271</v>
       </c>
+      <c r="F74">
+        <v>70538</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
@@ -5175,6 +5796,9 @@
       <c r="E75">
         <v>42098</v>
       </c>
+      <c r="F75">
+        <v>55604</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
@@ -5186,6 +5810,9 @@
       <c r="E76">
         <v>14104</v>
       </c>
+      <c r="F76">
+        <v>17444</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
@@ -5196,6 +5823,9 @@
       </c>
       <c r="E77">
         <v>4107</v>
+      </c>
+      <c r="F77">
+        <v>5075</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -5211,6 +5841,9 @@
       <c r="E78">
         <v>62782</v>
       </c>
+      <c r="F78">
+        <v>60178</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
@@ -5222,6 +5855,9 @@
       <c r="E79">
         <v>26701</v>
       </c>
+      <c r="F79">
+        <v>26637</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
@@ -5233,6 +5869,9 @@
       <c r="E80">
         <v>8752</v>
       </c>
+      <c r="F80">
+        <v>7861</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
@@ -5243,6 +5882,9 @@
       </c>
       <c r="E81">
         <v>834</v>
+      </c>
+      <c r="F81">
+        <v>868</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -5258,6 +5900,9 @@
       <c r="E82">
         <v>59</v>
       </c>
+      <c r="F82">
+        <v>46</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
@@ -5269,6 +5914,9 @@
       <c r="E83">
         <v>63</v>
       </c>
+      <c r="F83">
+        <v>69</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
@@ -5280,6 +5928,9 @@
       <c r="E84">
         <v>83</v>
       </c>
+      <c r="F84">
+        <v>70</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
@@ -5290,6 +5941,9 @@
       </c>
       <c r="E85">
         <v>528</v>
+      </c>
+      <c r="F85">
+        <v>1825</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -5305,6 +5959,9 @@
       <c r="E86" t="s">
         <v>99</v>
       </c>
+      <c r="F86" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
@@ -5316,6 +5973,9 @@
       <c r="E87" t="s">
         <v>100</v>
       </c>
+      <c r="F87" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
@@ -5327,6 +5987,9 @@
       <c r="E88" t="s">
         <v>101</v>
       </c>
+      <c r="F88" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
@@ -5337,6 +6000,9 @@
       </c>
       <c r="E89" t="s">
         <v>102</v>
+      </c>
+      <c r="F89" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -5352,6 +6018,9 @@
       <c r="E90" t="s">
         <v>103</v>
       </c>
+      <c r="F90" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
@@ -5363,6 +6032,9 @@
       <c r="E91" t="s">
         <v>104</v>
       </c>
+      <c r="F91" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
@@ -5374,6 +6046,9 @@
       <c r="E92" t="s">
         <v>105</v>
       </c>
+      <c r="F92" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
@@ -5384,6 +6059,9 @@
       </c>
       <c r="E93" t="s">
         <v>106</v>
+      </c>
+      <c r="F93" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -5425,8 +6103,11 @@
       <c r="E96">
         <v>153</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>7</v>
       </c>
@@ -5436,8 +6117,11 @@
       <c r="E97">
         <v>83034</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97">
+        <v>98558</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>2</v>
       </c>
@@ -5450,8 +6134,11 @@
       <c r="E98">
         <v>115</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>7</v>
       </c>
@@ -5461,8 +6148,11 @@
       <c r="E99">
         <v>65823</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99">
+        <v>69604</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>1</v>
       </c>
@@ -5475,8 +6165,11 @@
       <c r="E100">
         <v>55</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>7</v>
       </c>
@@ -5486,8 +6179,11 @@
       <c r="E101">
         <v>25233</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101">
+        <v>30884</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>0</v>
       </c>
@@ -5500,8 +6196,11 @@
       <c r="E102">
         <v>14</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>7</v>
       </c>
@@ -5511,8 +6210,11 @@
       <c r="E103">
         <v>8912</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103">
+        <v>9363</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -5528,8 +6230,11 @@
       <c r="E104">
         <v>25</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
         <v>7</v>
       </c>
@@ -5539,8 +6244,11 @@
       <c r="E105">
         <v>12519</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105">
+        <v>14708</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>2</v>
       </c>
@@ -5553,8 +6261,11 @@
       <c r="E106">
         <v>19</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
         <v>7</v>
       </c>
@@ -5564,8 +6275,11 @@
       <c r="E107">
         <v>9783</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107">
+        <v>10624</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>1</v>
       </c>
@@ -5578,8 +6292,11 @@
       <c r="E108">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>7</v>
       </c>
@@ -5589,8 +6306,11 @@
       <c r="E109">
         <v>3861</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>0</v>
       </c>
@@ -5603,8 +6323,11 @@
       <c r="E110">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>7</v>
       </c>
@@ -5614,8 +6337,11 @@
       <c r="E111">
         <v>1342</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -5624,6 +6350,9 @@
       </c>
       <c r="E112" t="s">
         <v>107</v>
+      </c>
+      <c r="F112" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5659,6 +6388,9 @@
       <c r="E115">
         <v>103717</v>
       </c>
+      <c r="F115">
+        <v>93529</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
@@ -5670,6 +6402,9 @@
       <c r="E116">
         <v>7275</v>
       </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
@@ -5681,6 +6416,9 @@
       <c r="E117">
         <v>33335</v>
       </c>
+      <c r="F117">
+        <v>21894</v>
+      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -5692,6 +6430,9 @@
       <c r="E118">
         <v>63107</v>
       </c>
+      <c r="F118">
+        <v>71635</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -5703,6 +6444,9 @@
       <c r="E119" t="s">
         <v>108</v>
       </c>
+      <c r="F119" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -5713,6 +6457,9 @@
       </c>
       <c r="E120" t="s">
         <v>109</v>
+      </c>
+      <c r="F120" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -5731,8 +6478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFD2204-262E-44E1-AB55-86008F8A8FE1}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5786,6 +6533,9 @@
       <c r="E3">
         <v>218</v>
       </c>
+      <c r="F3">
+        <v>241</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
@@ -5796,6 +6546,9 @@
       </c>
       <c r="E4">
         <v>139260</v>
+      </c>
+      <c r="F4">
+        <v>160570</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5811,6 +6564,9 @@
       <c r="E5">
         <v>138</v>
       </c>
+      <c r="F5">
+        <v>126</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
@@ -5821,6 +6577,9 @@
       </c>
       <c r="E6">
         <v>100181</v>
+      </c>
+      <c r="F6">
+        <v>106191</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5836,6 +6595,9 @@
       <c r="E7">
         <v>62</v>
       </c>
+      <c r="F7">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
@@ -5847,6 +6609,9 @@
       <c r="E8">
         <v>42196</v>
       </c>
+      <c r="F8">
+        <v>49835</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
@@ -5861,6 +6626,9 @@
       <c r="E9">
         <v>27</v>
       </c>
+      <c r="F9">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
@@ -5871,6 +6639,9 @@
       </c>
       <c r="E10">
         <v>12819</v>
+      </c>
+      <c r="F10">
+        <v>12623</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5889,6 +6660,9 @@
       <c r="E11">
         <v>1</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
@@ -5899,6 +6673,9 @@
       </c>
       <c r="E12">
         <v>16771</v>
+      </c>
+      <c r="F12">
+        <v>15192</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -5914,6 +6691,9 @@
       <c r="E13">
         <v>0</v>
       </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
@@ -5924,6 +6704,9 @@
       </c>
       <c r="E14">
         <v>8548</v>
+      </c>
+      <c r="F14">
+        <v>7352</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -5939,6 +6722,9 @@
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
@@ -5950,8 +6736,11 @@
       <c r="E16">
         <v>5278</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -5964,8 +6753,11 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -5975,8 +6767,11 @@
       <c r="E18">
         <v>1045</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -5992,8 +6787,11 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>7</v>
       </c>
@@ -6003,8 +6801,11 @@
       <c r="E20">
         <v>21602</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>25354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -6017,8 +6818,11 @@
       <c r="E21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>7</v>
       </c>
@@ -6028,8 +6832,11 @@
       <c r="E22">
         <v>11495</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>13964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>1</v>
       </c>
@@ -6042,8 +6849,11 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>7</v>
       </c>
@@ -6053,8 +6863,11 @@
       <c r="E24">
         <v>6169</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>7449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -6067,8 +6880,11 @@
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>7</v>
       </c>
@@ -6078,8 +6894,11 @@
       <c r="E26">
         <v>1241</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -6095,8 +6914,11 @@
       <c r="E27" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>7</v>
       </c>
@@ -6106,8 +6928,11 @@
       <c r="E28" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -6120,8 +6945,11 @@
       <c r="E29" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>7</v>
       </c>
@@ -6131,8 +6959,11 @@
       <c r="E30" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -6145,8 +6976,11 @@
       <c r="E31" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>7</v>
       </c>
@@ -6156,8 +6990,11 @@
       <c r="E32" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>0</v>
       </c>
@@ -6170,8 +7007,11 @@
       <c r="E33" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>7</v>
       </c>
@@ -6181,8 +7021,11 @@
       <c r="E34" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -6198,8 +7041,11 @@
       <c r="E35" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>7</v>
       </c>
@@ -6209,8 +7055,11 @@
       <c r="E36" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>2</v>
       </c>
@@ -6223,8 +7072,11 @@
       <c r="E37" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>7</v>
       </c>
@@ -6234,8 +7086,11 @@
       <c r="E38" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>1</v>
       </c>
@@ -6248,8 +7103,11 @@
       <c r="E39" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>7</v>
       </c>
@@ -6259,8 +7117,11 @@
       <c r="E40" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -6273,8 +7134,11 @@
       <c r="E41" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>7</v>
       </c>
@@ -6284,8 +7148,11 @@
       <c r="E42" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -6301,8 +7168,11 @@
       <c r="E43" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>7</v>
       </c>
@@ -6312,8 +7182,11 @@
       <c r="E44" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>2</v>
       </c>
@@ -6326,8 +7199,11 @@
       <c r="E45" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>7</v>
       </c>
@@ -6337,8 +7213,11 @@
       <c r="E46" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>1</v>
       </c>
@@ -6351,8 +7230,11 @@
       <c r="E47" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>7</v>
       </c>
@@ -6362,8 +7244,11 @@
       <c r="E48" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>0</v>
       </c>
@@ -6376,8 +7261,11 @@
       <c r="E49" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>7</v>
       </c>
@@ -6387,8 +7275,11 @@
       <c r="E50" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -6401,8 +7292,11 @@
       <c r="E51" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>2</v>
       </c>
@@ -6412,8 +7306,11 @@
       <c r="E52" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>1</v>
       </c>
@@ -6423,8 +7320,11 @@
       <c r="E53" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>0</v>
       </c>
@@ -6434,8 +7334,11 @@
       <c r="E54" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -6451,8 +7354,11 @@
       <c r="E55" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>7</v>
       </c>
@@ -6462,8 +7368,11 @@
       <c r="E56" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>2</v>
       </c>
@@ -6476,8 +7385,11 @@
       <c r="E57" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>7</v>
       </c>
@@ -6487,8 +7399,11 @@
       <c r="E58" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>1</v>
       </c>
@@ -6501,8 +7416,11 @@
       <c r="E59" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>7</v>
       </c>
@@ -6512,8 +7430,11 @@
       <c r="E60" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>0</v>
       </c>
@@ -6526,8 +7447,11 @@
       <c r="E61" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>7</v>
       </c>
@@ -6537,8 +7461,11 @@
       <c r="E62" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -6554,8 +7481,11 @@
       <c r="E63" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>7</v>
       </c>
@@ -6564,6 +7494,9 @@
       </c>
       <c r="E64" t="s">
         <v>253</v>
+      </c>
+      <c r="F64" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -6579,6 +7512,9 @@
       <c r="E65" t="s">
         <v>254</v>
       </c>
+      <c r="F65" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
@@ -6589,6 +7525,9 @@
       </c>
       <c r="E66" t="s">
         <v>255</v>
+      </c>
+      <c r="F66" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -6604,6 +7543,9 @@
       <c r="E67" t="s">
         <v>256</v>
       </c>
+      <c r="F67" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
@@ -6615,6 +7557,9 @@
       <c r="E68" t="s">
         <v>257</v>
       </c>
+      <c r="F68" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
@@ -6629,6 +7574,9 @@
       <c r="E69" t="s">
         <v>258</v>
       </c>
+      <c r="F69" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
@@ -6639,6 +7587,9 @@
       </c>
       <c r="E70" t="s">
         <v>259</v>
+      </c>
+      <c r="F70" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -6650,6 +7601,9 @@
       </c>
       <c r="E71" t="s">
         <v>98</v>
+      </c>
+      <c r="F71" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -6688,6 +7642,9 @@
       <c r="E74">
         <v>58910</v>
       </c>
+      <c r="F74">
+        <v>75728</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
@@ -6699,6 +7656,9 @@
       <c r="E75">
         <v>45817</v>
       </c>
+      <c r="F75">
+        <v>59617</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
@@ -6710,6 +7670,9 @@
       <c r="E76">
         <v>15266</v>
       </c>
+      <c r="F76">
+        <v>18743</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
@@ -6720,6 +7683,9 @@
       </c>
       <c r="E77">
         <v>4457</v>
+      </c>
+      <c r="F77">
+        <v>5415</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -6735,6 +7701,9 @@
       <c r="E78">
         <v>65395</v>
       </c>
+      <c r="F78">
+        <v>62546</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
@@ -6746,6 +7715,9 @@
       <c r="E79">
         <v>27836</v>
       </c>
+      <c r="F79">
+        <v>28549</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
@@ -6757,6 +7729,9 @@
       <c r="E80">
         <v>9068</v>
       </c>
+      <c r="F80">
+        <v>8520</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
@@ -6767,6 +7742,9 @@
       </c>
       <c r="E81">
         <v>1045</v>
+      </c>
+      <c r="F81">
+        <v>1442</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -6782,6 +7760,9 @@
       <c r="E82">
         <v>264</v>
       </c>
+      <c r="F82">
+        <v>211</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
@@ -6793,6 +7774,9 @@
       <c r="E83">
         <v>233</v>
       </c>
+      <c r="F83">
+        <v>242</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
@@ -6804,6 +7788,9 @@
       <c r="E84">
         <v>274</v>
       </c>
+      <c r="F84">
+        <v>200</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
@@ -6814,6 +7801,9 @@
       </c>
       <c r="E85">
         <v>177</v>
+      </c>
+      <c r="F85">
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -6829,6 +7819,9 @@
       <c r="E86" t="s">
         <v>260</v>
       </c>
+      <c r="F86" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
@@ -6840,6 +7833,9 @@
       <c r="E87" t="s">
         <v>261</v>
       </c>
+      <c r="F87" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
@@ -6851,6 +7847,9 @@
       <c r="E88" t="s">
         <v>262</v>
       </c>
+      <c r="F88" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
@@ -6861,6 +7860,9 @@
       </c>
       <c r="E89" t="s">
         <v>263</v>
+      </c>
+      <c r="F89" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -6876,6 +7878,9 @@
       <c r="E90" t="s">
         <v>264</v>
       </c>
+      <c r="F90" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
@@ -6887,6 +7892,9 @@
       <c r="E91" t="s">
         <v>265</v>
       </c>
+      <c r="F91" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
@@ -6898,6 +7906,9 @@
       <c r="E92" t="s">
         <v>266</v>
       </c>
+      <c r="F92" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
@@ -6908,6 +7919,9 @@
       </c>
       <c r="E93" t="s">
         <v>267</v>
+      </c>
+      <c r="F93" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -6949,6 +7963,9 @@
       <c r="E96">
         <v>171</v>
       </c>
+      <c r="F96">
+        <v>195</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
@@ -6959,6 +7976,9 @@
       </c>
       <c r="E97">
         <v>81164</v>
+      </c>
+      <c r="F97">
+        <v>96753</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -6974,6 +7994,9 @@
       <c r="E98">
         <v>113</v>
       </c>
+      <c r="F98">
+        <v>100</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
@@ -6984,6 +8007,9 @@
       </c>
       <c r="E99">
         <v>64937</v>
+      </c>
+      <c r="F99">
+        <v>68550</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -6999,6 +8025,9 @@
       <c r="E100">
         <v>47</v>
       </c>
+      <c r="F100">
+        <v>62</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
@@ -7010,6 +8039,9 @@
       <c r="E101">
         <v>24672</v>
       </c>
+      <c r="F101">
+        <v>30274</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
@@ -7024,6 +8056,9 @@
       <c r="E102">
         <v>22</v>
       </c>
+      <c r="F102">
+        <v>25</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
@@ -7034,6 +8069,9 @@
       </c>
       <c r="E103">
         <v>8491</v>
+      </c>
+      <c r="F103">
+        <v>8630</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -7052,6 +8090,9 @@
       <c r="E104">
         <v>46</v>
       </c>
+      <c r="F104">
+        <v>46</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
@@ -7062,6 +8103,9 @@
       </c>
       <c r="E105">
         <v>19792</v>
+      </c>
+      <c r="F105">
+        <v>23513</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -7077,6 +8121,9 @@
       <c r="E106">
         <v>25</v>
       </c>
+      <c r="F106">
+        <v>26</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
@@ -7087,6 +8134,9 @@
       </c>
       <c r="E107">
         <v>15535</v>
+      </c>
+      <c r="F107">
+        <v>16550</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -7102,6 +8152,9 @@
       <c r="E108">
         <v>15</v>
       </c>
+      <c r="F108">
+        <v>13</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
@@ -7113,6 +8166,9 @@
       <c r="E109">
         <v>6078</v>
       </c>
+      <c r="F109">
+        <v>7479</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
@@ -7127,6 +8183,9 @@
       <c r="E110">
         <v>5</v>
       </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
@@ -7137,6 +8196,9 @@
       </c>
       <c r="E111">
         <v>2109</v>
+      </c>
+      <c r="F111">
+        <v>2097</v>
       </c>
       <c r="G111" s="9"/>
     </row>
@@ -7149,6 +8211,9 @@
       </c>
       <c r="E112" t="s">
         <v>268</v>
+      </c>
+      <c r="F112" t="s">
+        <v>546</v>
       </c>
       <c r="G112" s="9"/>
     </row>
@@ -7185,6 +8250,9 @@
       <c r="E115">
         <v>103717</v>
       </c>
+      <c r="F115">
+        <v>93529</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
@@ -7196,6 +8264,9 @@
       <c r="E116">
         <v>7437</v>
       </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
@@ -7207,6 +8278,9 @@
       <c r="E117">
         <v>33288</v>
       </c>
+      <c r="F117">
+        <v>21894</v>
+      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -7218,6 +8292,9 @@
       <c r="E118">
         <v>62992</v>
       </c>
+      <c r="F118">
+        <v>71635</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -7229,6 +8306,9 @@
       <c r="E119" t="s">
         <v>269</v>
       </c>
+      <c r="F119" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -7239,6 +8319,9 @@
       </c>
       <c r="E120" t="s">
         <v>270</v>
+      </c>
+      <c r="F120" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/data/CONFRONTO_VERSIONI.xlsx
+++ b/data/CONFRONTO_VERSIONI.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{79D3C2E9-C11C-408C-9918-E7BCF1F966EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BF56508-CED5-48CA-A94D-566186C18DD0}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{79D3C2E9-C11C-408C-9918-E7BCF1F966EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E13400F-7AB4-429D-A945-EC0AD23E91A9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
   </bookViews>
   <sheets>
-    <sheet name="REAL" sheetId="11" r:id="rId1"/>
+    <sheet name="Analytical" sheetId="12" r:id="rId1"/>
     <sheet name="ABO Identical" sheetId="9" r:id="rId2"/>
-    <sheet name="ABO Compatible" sheetId="6" r:id="rId3"/>
-    <sheet name="ABO Incompatible" sheetId="10" r:id="rId4"/>
+    <sheet name="REAL" sheetId="11" r:id="rId3"/>
+    <sheet name="ABO Compatible" sheetId="6" r:id="rId4"/>
+    <sheet name="ABO Incompatible" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="550">
   <si>
     <t>AB</t>
   </si>
@@ -1707,6 +1708,12 @@
   </si>
   <si>
     <t>42.779000,+/-1.372047</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V3</t>
   </si>
 </sst>
 </file>
@@ -1895,6 +1902,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2193,44 +2204,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55DEE44-1884-45EE-808F-D75FB017A4E0}">
-  <dimension ref="A1:F63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5C38B3-49E9-458D-8669-DF8830114E35}">
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K120" sqref="K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="14" t="s">
-        <v>37</v>
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>33</v>
+      <c r="A3" t="s">
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2238,85 +2247,54 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4">
-        <v>179</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4">
-        <v>129759</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4">
-        <v>100</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4">
-        <v>86128</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4">
-        <v>50</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4">
-        <v>39344</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4">
-        <v>9920</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -2324,85 +2302,54 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12">
-        <v>15</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="12">
-        <v>9383</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="12">
-        <v>10</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="12">
-        <v>4695</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="12">
-        <v>5</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="12">
-        <v>2856</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="12">
-        <v>429</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
+      <c r="A19" t="s">
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -2410,85 +2357,54 @@
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="12">
-        <v>25</v>
-      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
       <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="12">
-        <v>14395</v>
-      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="12">
-        <v>12</v>
-      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="12">
-        <v>8187</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="12">
-        <v>4</v>
-      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
       <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="12">
-        <v>4307</v>
-      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="12">
-        <v>3</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
       <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="12">
-        <v>761</v>
-      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>27</v>
+      <c r="A27" t="s">
+        <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -2496,373 +2412,612 @@
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="4">
-        <v>20.391061452513966</v>
+      <c r="D27">
+        <v>19.210526315789451</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
       <c r="C28" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="4">
-        <v>2.8129070045237708E-2</v>
+      <c r="D28">
+        <v>2.6539020843431863E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
       <c r="B29" t="s">
         <v>2</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="4">
-        <v>36.5</v>
+      <c r="D29">
+        <v>34.21875000000005</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
       <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="4">
-        <v>4.2378785064090665E-2</v>
+      <c r="D30">
+        <v>4.0541291027231155E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
       <c r="B31" t="s">
         <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="4">
-        <v>73</v>
+      <c r="D31">
+        <v>60.833333333333186</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
       <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="4">
-        <v>9.2771451809678718E-2</v>
+      <c r="D32">
+        <v>8.6946164840400186E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
       <c r="B33" t="s">
         <v>0</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="4">
-        <v>243.33333333333337</v>
+      <c r="D33">
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
       <c r="C34" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="4">
-        <v>0.3679435483870967</v>
+      <c r="D34">
+        <v>0.34723323291580743</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="14" t="s">
-        <v>37</v>
+      <c r="C36" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="12">
-        <v>40606</v>
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="12">
-        <v>31517</v>
+      <c r="C38" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
       <c r="B39" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="12">
-        <v>10137</v>
+      <c r="C39" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="12">
-        <v>2933</v>
+      <c r="C40" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="4">
-        <v>37426</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" t="s">
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="4">
-        <v>16267</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="4">
-        <v>4872</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="4">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="4">
-        <v>8.9888193862975932E-2</v>
+      <c r="C45" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="4">
-        <v>0.11581051496018022</v>
+      <c r="C46" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
       <c r="B47" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="4">
-        <v>0.36006708099043105</v>
+      <c r="C47" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8">
-        <v>1.2444595976815547</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="18"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>36</v>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>40</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52">
-        <v>76050</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>2</v>
       </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54">
-        <v>60520</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-      <c r="B55" t="s">
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>1</v>
       </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56">
-        <v>22795</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57">
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="7">
-        <v>8350</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>8.2597872821905366E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>0.10639848418597873</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0.33470884915176552</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1.1471974855945521</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>21</v>
       </c>
-      <c r="D61">
-        <v>99707</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
+      <c r="D107">
+        <v>93508.333333333459</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108">
+        <v>139.9999999999977</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>22</v>
       </c>
-      <c r="D62">
-        <v>28574</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
+      <c r="D109">
+        <v>28135.000000000044</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7">
-        <v>80767</v>
+      <c r="D110">
+        <v>88828.333333333459</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112">
+        <v>5844.2708333333412</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A59:F59"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A105:D105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2870,8 +3025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFBA70C-A8ED-4C94-8FF2-9C7F6AB93B1B}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4619,6 +4774,680 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55DEE44-1884-45EE-808F-D75FB017A4E0}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4">
+        <v>129759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4">
+        <v>86128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>39344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="12">
+        <v>9383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="12">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="12">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="12">
+        <v>14395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="12">
+        <v>8187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="12">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="12">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4">
+        <v>20.391061452513966</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2.8129070045237708E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="4">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4.2378785064090665E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="4">
+        <v>9.2771451809678718E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="4">
+        <v>243.33333333333337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.3679435483870967</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="12">
+        <v>40606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="12">
+        <v>31517</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="12">
+        <v>10137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="12">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="4">
+        <v>37426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4">
+        <v>16267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="4">
+        <v>8.9888193862975932E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.11581051496018022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.36006708099043105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8">
+        <v>1.2444595976815547</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>76050</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>60520</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>22795</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="7">
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61">
+        <v>99707</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62">
+        <v>28574</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7">
+        <v>80767</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A35:D35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B0CFC0-6B65-4A53-A15E-ECBF83434F62}">
   <dimension ref="A1:F120"/>
   <sheetViews>
@@ -6474,11 +7303,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFD2204-262E-44E1-AB55-86008F8A8FE1}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>

--- a/data/CONFRONTO_VERSIONI.xlsx
+++ b/data/CONFRONTO_VERSIONI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{79D3C2E9-C11C-408C-9918-E7BCF1F966EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E13400F-7AB4-429D-A945-EC0AD23E91A9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E5C654-0C66-42AF-AE99-454FDD4F7F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Analytical" sheetId="12" r:id="rId1"/>
@@ -39,32 +39,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>oem</author>
-  </authors>
-  <commentList>
-    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{2D378857-45E0-4C16-8BC3-B927A9C0B480}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Computed as:
-- </t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="553">
   <si>
     <t>AB</t>
   </si>
@@ -1710,10 +1686,19 @@
     <t>42.779000,+/-1.372047</t>
   </si>
   <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V3</t>
+    <t>V2 - 2019</t>
+  </si>
+  <si>
+    <t>V1 - avg(2014/2019)</t>
+  </si>
+  <si>
+    <t>V3 - sum(2010/2019)</t>
+  </si>
+  <si>
+    <t>V1 - avg(2014/2019) * 10y</t>
+  </si>
+  <si>
+    <t>V2 - 2019 * 10y</t>
   </si>
 </sst>
 </file>
@@ -1753,9 +1738,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1859,7 +1844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1878,14 +1863,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1902,10 +1892,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2205,40 +2191,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5C38B3-49E9-458D-8669-DF8830114E35}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K120" sqref="K120"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="F2" s="17" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
@@ -2247,53 +2242,132 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>190</v>
+      </c>
+      <c r="E3">
+        <v>190</v>
+      </c>
+      <c r="F3" s="4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>137533.33333333334</v>
+      </c>
+      <c r="E4">
+        <v>153820</v>
+      </c>
+      <c r="F4" s="4">
+        <v>129759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>106.66666666666666</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>90031.666666666657</v>
+      </c>
+      <c r="E6">
+        <v>99150</v>
+      </c>
+      <c r="F6" s="4">
+        <v>86128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
       <c r="C8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>41980</v>
+      </c>
+      <c r="E8">
+        <v>46889.999999999993</v>
+      </c>
+      <c r="F8" s="4">
+        <v>39344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
       <c r="C10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D10">
+        <v>10511.666666666668</v>
+      </c>
+      <c r="E10">
+        <v>11600</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
@@ -2302,53 +2376,132 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
       <c r="C12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>9138.3333333333339</v>
+      </c>
+      <c r="E12">
+        <v>8740</v>
+      </c>
+      <c r="F12" s="4">
+        <v>9383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
       <c r="C14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>4455</v>
+      </c>
+      <c r="E14">
+        <v>3680.0000000000005</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
       <c r="C16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>2831.666666666667</v>
+      </c>
+      <c r="E16">
+        <v>2699.9999999999995</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
       <c r="C18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="D18">
+        <v>385</v>
+      </c>
+      <c r="E18">
+        <v>340</v>
+      </c>
+      <c r="F18" s="4">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B19" t="s">
@@ -2357,53 +2510,132 @@
       <c r="C19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>23.333333333333336</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
       <c r="C20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>15215</v>
+      </c>
+      <c r="E20">
+        <v>15639.999999999998</v>
+      </c>
+      <c r="F20" s="4">
+        <v>14395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
       <c r="C22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>8533.3333333333339</v>
+      </c>
+      <c r="E22">
+        <v>8640</v>
+      </c>
+      <c r="F22" s="4">
+        <v>8187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
       <c r="C24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>4540</v>
+      </c>
+      <c r="E24">
+        <v>4780</v>
+      </c>
+      <c r="F24" s="4">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
       <c r="C26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="D26">
+        <v>770</v>
+      </c>
+      <c r="E26">
+        <v>869.99999999999989</v>
+      </c>
+      <c r="F26" s="4">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B27" t="s">
@@ -2415,16 +2647,30 @@
       <c r="D27">
         <v>19.210526315789451</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>19.210526315789473</v>
+      </c>
+      <c r="F27" s="4">
+        <v>20.391061452513966</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28">
         <v>2.6539020843431863E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>2.372903393576908E-2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2.8129070045237708E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -2434,16 +2680,30 @@
       <c r="D29">
         <v>34.21875000000005</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>36.5</v>
+      </c>
+      <c r="F29" s="4">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30">
         <v>4.0541291027231155E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>3.6812909732728188E-2</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4.2378785064090659E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -2453,16 +2713,30 @@
       <c r="D31">
         <v>60.833333333333186</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>36.5</v>
+      </c>
+      <c r="F31" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32">
         <v>8.6946164840400186E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>7.7841757304329282E-2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>9.2771451809678732E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
       <c r="B33" t="s">
         <v>0</v>
       </c>
@@ -2472,17 +2746,30 @@
       <c r="D33">
         <v>219</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>182.5</v>
+      </c>
+      <c r="F33" s="4">
+        <v>243.33333333333337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34">
         <v>0.34723323291580743</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="E34">
+        <v>0.31465517241379309</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.36794354838709681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B35" t="s">
@@ -2491,53 +2778,68 @@
       <c r="C35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
       <c r="C36" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
       <c r="B37" t="s">
         <v>2</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
       <c r="C38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
       <c r="B39" t="s">
         <v>1</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
       <c r="C40" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
       <c r="B41" t="s">
         <v>0</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
       <c r="C42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B43" t="s">
@@ -2546,76 +2848,98 @@
       <c r="C43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
       <c r="C44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
       <c r="B45" t="s">
         <v>2</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
       <c r="C46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
       <c r="B47" t="s">
         <v>1</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
       <c r="C48" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
       <c r="B49" t="s">
         <v>0</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
       <c r="C50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
       <c r="B52" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
       <c r="B53" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
       <c r="B54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B55" t="s">
@@ -2624,53 +2948,68 @@
       <c r="C55" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
       <c r="C56" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
       <c r="B57" t="s">
         <v>2</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
       <c r="C58" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
       <c r="B59" t="s">
         <v>1</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
       <c r="C60" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
       <c r="B61" t="s">
         <v>0</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
       <c r="C62" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B63" t="s">
@@ -2679,119 +3018,217 @@
       <c r="C63" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="5"/>
       <c r="C64" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
       <c r="B65" t="s">
         <v>2</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
       <c r="C66" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
       <c r="B67" t="s">
         <v>1</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
       <c r="C68" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
       <c r="B69" t="s">
         <v>0</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="5"/>
       <c r="C70" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>48</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>44190</v>
+      </c>
+      <c r="E74">
+        <v>53220</v>
+      </c>
+      <c r="F74">
+        <v>40606</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>34305.000000000007</v>
+      </c>
+      <c r="E75">
+        <v>41270</v>
+      </c>
+      <c r="F75">
+        <v>31517</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>10905</v>
+      </c>
+      <c r="E76">
+        <v>13130</v>
+      </c>
+      <c r="F76">
+        <v>10137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>3181.666666666667</v>
+      </c>
+      <c r="E77">
+        <v>3900</v>
+      </c>
+      <c r="F77">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>49</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>37613.333333333336</v>
+      </c>
+      <c r="E78">
+        <v>43030</v>
+      </c>
+      <c r="F78">
+        <v>37426</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>16570</v>
+      </c>
+      <c r="E79">
+        <v>18890</v>
+      </c>
+      <c r="F79">
+        <v>16267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>4878.3333333333339</v>
+      </c>
+      <c r="E80">
+        <v>5620</v>
+      </c>
+      <c r="F80">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>798.33333333333337</v>
+      </c>
+      <c r="E81">
+        <v>1120</v>
+      </c>
+      <c r="F81">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -2799,22 +3236,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -2824,32 +3261,56 @@
       <c r="D86">
         <v>8.2597872821905366E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <v>6.8583239383690348E-2</v>
+      </c>
+      <c r="F86">
+        <v>8.9888193862975918E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>2</v>
       </c>
       <c r="D87">
         <v>0.10639848418597873</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <v>8.8441967530894117E-2</v>
+      </c>
+      <c r="F87">
+        <v>0.11581051496018022</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>1</v>
       </c>
       <c r="D88">
         <v>0.33470884915176552</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <v>0.27798933739527798</v>
+      </c>
+      <c r="F88">
+        <v>0.36006708099043111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>0</v>
       </c>
       <c r="D89">
         <v>1.1471974855945521</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <v>0.9358974358974359</v>
+      </c>
+      <c r="F89">
+        <v>1.2444595976815547</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -2857,38 +3318,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="19" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E95" s="15" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F95" s="17" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>36</v>
       </c>
@@ -2899,12 +3366,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>2</v>
       </c>
@@ -2912,12 +3379,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>1</v>
       </c>
@@ -2925,12 +3392,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>0</v>
       </c>
@@ -2938,76 +3405,103 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="19" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+      <c r="E105" s="11"/>
+      <c r="F105" s="16"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E106" s="15" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="F106" s="17" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D107">
-        <v>93508.333333333459</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+        <v>93508.333333333343</v>
+      </c>
+      <c r="E107">
+        <v>103450</v>
+      </c>
+      <c r="F107" s="4">
+        <v>99707</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D108">
-        <v>139.9999999999977</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D109">
-        <v>28135.000000000044</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+        <v>28135</v>
+      </c>
+      <c r="E109">
+        <v>24070</v>
+      </c>
+      <c r="F109" s="4">
+        <v>28574</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D110">
-        <v>88828.333333333459</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+        <v>92786.666666666657</v>
+      </c>
+      <c r="E110">
+        <v>91350</v>
+      </c>
+      <c r="F110" s="4">
+        <v>80767</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D112">
-        <v>5844.2708333333412</v>
-      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3016,6 +3510,7 @@
     <mergeCell ref="A94:D94"/>
     <mergeCell ref="A105:D105"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -3025,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFBA70C-A8ED-4C94-8FF2-9C7F6AB93B1B}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3039,13 +3534,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4154,13 +4649,13 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
@@ -4472,13 +4967,13 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -4636,13 +5131,13 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="19" t="s">
+      <c r="A105" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -4774,11 +5269,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55DEE44-1884-45EE-808F-D75FB017A4E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55DEE44-1884-45EE-808F-D75FB017A4E0}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4791,12 +5286,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5154,12 +5649,12 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -5286,14 +5781,14 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="18"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
@@ -5391,14 +5886,14 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="18"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
@@ -5443,7 +5938,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5464,13 +5958,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6576,13 +7070,13 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
@@ -6894,13 +7388,13 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -7185,13 +7679,13 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
@@ -7321,13 +7815,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -8436,13 +8930,13 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
@@ -8754,13 +9248,13 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -9047,13 +9541,13 @@
       <c r="G112" s="9"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B113" s="20"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">

--- a/data/CONFRONTO_VERSIONI.xlsx
+++ b/data/CONFRONTO_VERSIONI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E5C654-0C66-42AF-AE99-454FDD4F7F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{B1E5C654-0C66-42AF-AE99-454FDD4F7F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CC418EC-25CF-41EB-A663-E9390DD5EB9E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="555">
   <si>
     <t>AB</t>
   </si>
@@ -1699,6 +1699,12 @@
   </si>
   <si>
     <t>V2 - 2019 * 10y</t>
+  </si>
+  <si>
+    <t>V2 - 2019 (v1)</t>
+  </si>
+  <si>
+    <t>V2 - 2019 (v2)</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1877,6 +1883,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2191,10 +2204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5C38B3-49E9-458D-8669-DF8830114E35}">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2202,13 +2215,14 @@
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>38</v>
       </c>
@@ -2216,9 +2230,9 @@
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="11"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -2226,13 +2240,16 @@
         <v>549</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="F2" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -2245,14 +2262,15 @@
       <c r="D3">
         <v>190</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="24">
         <v>190</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="24"/>
+      <c r="G3" s="4">
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="C4" t="s">
         <v>7</v>
@@ -2260,14 +2278,15 @@
       <c r="D4">
         <v>137533.33333333334</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="24">
         <v>153820</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="24"/>
+      <c r="G4" s="4">
         <v>129759</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>2</v>
@@ -2278,29 +2297,31 @@
       <c r="D5">
         <v>106.66666666666666</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="24">
         <v>100</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="24"/>
+      <c r="G5" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="26">
         <v>90031.666666666657</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="25">
         <v>99150</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="24"/>
+      <c r="G6" s="4">
         <v>86128</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>1</v>
@@ -2308,32 +2329,34 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="26">
         <v>60</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="24">
         <v>100</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="24"/>
+      <c r="G7" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="26">
         <v>41980</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="25">
         <v>46889.999999999993</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="24"/>
+      <c r="G8" s="4">
         <v>39344</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>0</v>
@@ -2341,32 +2364,34 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="26">
         <v>16.666666666666668</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="25">
         <v>20</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="24"/>
+      <c r="G9" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="26">
         <v>10511.666666666668</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="25">
         <v>11600</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="24"/>
+      <c r="G10" s="4">
         <v>9920</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2376,32 +2401,34 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="26">
         <v>10</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="25">
         <v>10</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="24"/>
+      <c r="G11" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="26">
         <v>9138.3333333333339</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="25">
         <v>8740</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="24"/>
+      <c r="G12" s="4">
         <v>9383</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>2</v>
@@ -2409,32 +2436,34 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="26">
         <v>3.333333333333333</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E13" s="25">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="26">
         <v>4455</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="25">
         <v>3680.0000000000005</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="24"/>
+      <c r="G14" s="4">
         <v>4695</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>1</v>
@@ -2442,32 +2471,34 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="D15" s="26">
+        <v>0</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="26">
         <v>2831.666666666667</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="25">
         <v>2699.9999999999995</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="24"/>
+      <c r="G16" s="4">
         <v>2856</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>0</v>
@@ -2475,32 +2506,34 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="D17" s="26">
+        <v>0</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="26">
         <v>385</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="25">
         <v>340</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="24"/>
+      <c r="G18" s="4">
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
@@ -2510,32 +2543,34 @@
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="26">
         <v>23.333333333333336</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="E19" s="25">
+        <v>0</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="26">
         <v>15215</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="25">
         <v>15639.999999999998</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="24"/>
+      <c r="G20" s="4">
         <v>14395</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" t="s">
         <v>2</v>
@@ -2543,32 +2578,34 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="26">
         <v>5</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="25">
         <v>20</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="24"/>
+      <c r="G21" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="26">
         <v>8533.3333333333339</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="25">
         <v>8640</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="24"/>
+      <c r="G22" s="4">
         <v>8187</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" t="s">
         <v>1</v>
@@ -2576,32 +2613,34 @@
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="D23" s="26">
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="26">
         <v>4540</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="25">
         <v>4780</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="24"/>
+      <c r="G24" s="4">
         <v>4307</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" t="s">
         <v>0</v>
@@ -2609,32 +2648,34 @@
       <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="26">
         <v>5</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="E25" s="25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="26">
         <v>770</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="25">
         <v>869.99999999999989</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="24"/>
+      <c r="G26" s="4">
         <v>761</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
@@ -2644,32 +2685,34 @@
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="26">
         <v>19.210526315789451</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="25">
         <v>19.210526315789473</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="24"/>
+      <c r="G27" s="4">
         <v>20.391061452513966</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="C28" t="s">
         <v>7</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="26">
         <v>2.6539020843431863E-2</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="25">
         <v>2.372903393576908E-2</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="24"/>
+      <c r="G28" s="4">
         <v>2.8129070045237708E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" t="s">
         <v>2</v>
@@ -2677,32 +2720,34 @@
       <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="26">
         <v>34.21875000000005</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="25">
         <v>36.5</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="24"/>
+      <c r="G29" s="4">
         <v>36.5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="26">
         <v>4.0541291027231155E-2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="25">
         <v>3.6812909732728188E-2</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="24"/>
+      <c r="G30" s="4">
         <v>4.2378785064090659E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" t="s">
         <v>1</v>
@@ -2710,32 +2755,34 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="26">
         <v>60.833333333333186</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="25">
         <v>36.5</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="24"/>
+      <c r="G31" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="26">
         <v>8.6946164840400186E-2</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="25">
         <v>7.7841757304329282E-2</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="24"/>
+      <c r="G32" s="4">
         <v>9.2771451809678732E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" t="s">
         <v>0</v>
@@ -2743,32 +2790,34 @@
       <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="26">
         <v>219</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="25">
         <v>182.5</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="24"/>
+      <c r="G33" s="4">
         <v>243.33333333333337</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="C34" t="s">
         <v>7</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="26">
         <v>0.34723323291580743</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="25">
         <v>0.31465517241379309</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="24"/>
+      <c r="G34" s="4">
         <v>0.36794354838709681</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>12</v>
       </c>
@@ -2778,16 +2827,22 @@
       <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>6.754719482850477E-2</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="C36" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>0.17297491929276398</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" t="s">
         <v>2</v>
@@ -2795,16 +2850,22 @@
       <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>0.10870685524998384</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="C38" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>0.29079361540176518</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" t="s">
         <v>1</v>
@@ -2812,16 +2873,22 @@
       <c r="C39" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>0.34111553161867114</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="C40" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>0.78372876348833975</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" t="s">
         <v>0</v>
@@ -2829,16 +2896,22 @@
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>0.74790564166189533</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="C42" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>3.0338535393027626</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>11</v>
       </c>
@@ -2848,16 +2921,22 @@
       <c r="C43" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>2.9625116906426847E-2</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="C44" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>0.13505284137068607</v>
+      </c>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" t="s">
         <v>2</v>
@@ -2865,16 +2944,22 @@
       <c r="C45" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>4.8035312696792357E-2</v>
+      </c>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="C46" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>0.23012207284857372</v>
+      </c>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" t="s">
         <v>1</v>
@@ -2882,16 +2967,22 @@
       <c r="C47" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>0.14644886495200449</v>
+      </c>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="C48" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>0.5890620968216731</v>
+      </c>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" t="s">
         <v>0</v>
@@ -2899,46 +2990,64 @@
       <c r="C49" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>0.55323897499522867</v>
+      </c>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="C50" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>2.3067619058366273</v>
+      </c>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>3.7922077922077919E-2</v>
+      </c>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" t="s">
         <v>2</v>
       </c>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>6.0671542553191488E-2</v>
+      </c>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>0.19466666666666668</v>
+      </c>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" t="s">
         <v>0</v>
       </c>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>0.72709163346613537</v>
+      </c>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>10</v>
       </c>
@@ -2948,16 +3057,22 @@
       <c r="C55" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>1.2990074945630624E-3</v>
+      </c>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="C56" t="s">
         <v>7</v>
       </c>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>3.5574287030917144</v>
+      </c>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" t="s">
         <v>2</v>
@@ -2965,16 +3080,22 @@
       <c r="C57" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>1.0537572203384437E-3</v>
+      </c>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="C58" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>3.7896316766633995</v>
+      </c>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" t="s">
         <v>1</v>
@@ -2982,16 +3103,22 @@
       <c r="C59" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>2.1416049247135337E-3</v>
+      </c>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="C60" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>3.020164044318288</v>
+      </c>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" t="s">
         <v>0</v>
@@ -2999,16 +3126,22 @@
       <c r="C61" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>9.823206481650703E-4</v>
+      </c>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="C62" t="s">
         <v>7</v>
       </c>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>3.1678762176363828</v>
+      </c>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>9</v>
       </c>
@@ -3018,16 +3151,22 @@
       <c r="C63" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>5.6972386472095972E-4</v>
+      </c>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="C64" t="s">
         <v>7</v>
       </c>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>2.7775174359989943</v>
+      </c>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" t="s">
         <v>2</v>
@@ -3035,16 +3174,22 @@
       <c r="C65" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>4.6563353772914319E-4</v>
+      </c>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="C66" t="s">
         <v>7</v>
       </c>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <v>2.9989581977634563</v>
+      </c>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" t="s">
         <v>1</v>
@@ -3052,16 +3197,22 @@
       <c r="C67" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>9.1944101434387169E-4</v>
+      </c>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="C68" t="s">
         <v>7</v>
       </c>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <v>2.2699998361333895</v>
+      </c>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" t="s">
         <v>0</v>
@@ -3069,16 +3220,22 @@
       <c r="C69" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <v>7.2663988374241004E-4</v>
+      </c>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="C70" t="s">
         <v>7</v>
       </c>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <v>2.4086647844341362</v>
+      </c>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>41</v>
       </c>
@@ -3086,9 +3243,9 @@
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
         <v>39</v>
       </c>
@@ -3096,7 +3253,7 @@
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
@@ -3106,11 +3263,11 @@
       <c r="E73" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="F73" s="17" t="s">
+      <c r="G73" s="17" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -3123,11 +3280,11 @@
       <c r="E74">
         <v>53220</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>40606</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>2</v>
       </c>
@@ -3137,11 +3294,11 @@
       <c r="E75">
         <v>41270</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>31517</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>1</v>
       </c>
@@ -3151,11 +3308,11 @@
       <c r="E76">
         <v>13130</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>10137</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>0</v>
       </c>
@@ -3165,11 +3322,11 @@
       <c r="E77">
         <v>3900</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>2933</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>49</v>
       </c>
@@ -3182,11 +3339,11 @@
       <c r="E78">
         <v>43030</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>37426</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>2</v>
       </c>
@@ -3196,11 +3353,11 @@
       <c r="E79">
         <v>18890</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>16267</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>1</v>
       </c>
@@ -3210,11 +3367,11 @@
       <c r="E80">
         <v>5620</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>4872</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>0</v>
       </c>
@@ -3224,11 +3381,11 @@
       <c r="E81">
         <v>1120</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>755</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -3236,22 +3393,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -3264,11 +3421,11 @@
       <c r="E86">
         <v>6.8583239383690348E-2</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>8.9888193862975918E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>2</v>
       </c>
@@ -3278,11 +3435,11 @@
       <c r="E87">
         <v>8.8441967530894117E-2</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>0.11581051496018022</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>1</v>
       </c>
@@ -3292,11 +3449,11 @@
       <c r="E88">
         <v>0.27798933739527798</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>0.36006708099043111</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>0</v>
       </c>
@@ -3306,11 +3463,11 @@
       <c r="E89">
         <v>0.9358974358974359</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>1.2444595976815547</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -3318,22 +3475,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>31</v>
       </c>
@@ -3341,7 +3498,7 @@
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>17</v>
       </c>
@@ -3351,11 +3508,11 @@
       <c r="E95" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="F95" s="17" t="s">
+      <c r="G95" s="17" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>36</v>
       </c>
@@ -3366,12 +3523,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>2</v>
       </c>
@@ -3379,12 +3536,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>1</v>
       </c>
@@ -3392,12 +3549,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>0</v>
       </c>
@@ -3405,17 +3562,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="18" t="s">
         <v>30</v>
       </c>
@@ -3423,9 +3580,9 @@
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
       <c r="E105" s="11"/>
-      <c r="F105" s="16"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105" s="16"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>17</v>
       </c>
@@ -3435,11 +3592,11 @@
       <c r="E106" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="F106" s="17" t="s">
+      <c r="G106" s="17" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>21</v>
       </c>
@@ -3449,17 +3606,17 @@
       <c r="E107">
         <v>103450</v>
       </c>
-      <c r="F107" s="4">
+      <c r="G107" s="4">
         <v>99707</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F108" s="4"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>22</v>
       </c>
@@ -3469,11 +3626,11 @@
       <c r="E109">
         <v>24070</v>
       </c>
-      <c r="F109" s="4">
+      <c r="G109" s="4">
         <v>28574</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>23</v>
       </c>
@@ -3483,17 +3640,17 @@
       <c r="E110">
         <v>91350</v>
       </c>
-      <c r="F110" s="4">
+      <c r="G110" s="4">
         <v>80767</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F111" s="4"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>25</v>
       </c>
@@ -3501,14 +3658,46 @@
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
-      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="36">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A72:D72"/>
     <mergeCell ref="A94:D94"/>
     <mergeCell ref="A105:D105"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3520,8 +3709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFBA70C-A8ED-4C94-8FF2-9C7F6AB93B1B}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/CONFRONTO_VERSIONI.xlsx
+++ b/data/CONFRONTO_VERSIONI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{B1E5C654-0C66-42AF-AE99-454FDD4F7F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CC418EC-25CF-41EB-A663-E9390DD5EB9E}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{B1E5C654-0C66-42AF-AE99-454FDD4F7F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E2315D-E77E-47DC-89F1-60E33C657CCC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
+    <workbookView xWindow="24105" yWindow="2340" windowWidth="15375" windowHeight="10500" activeTab="1" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Analytical" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="551">
   <si>
     <t>AB</t>
   </si>
@@ -168,24 +168,12 @@
     <t>Utilization in the waiting list</t>
   </si>
   <si>
-    <t>Original rates</t>
-  </si>
-  <si>
-    <t>Variable original rates</t>
-  </si>
-  <si>
-    <t>Modified rates</t>
-  </si>
-  <si>
     <t>Number of living donor organs arrived</t>
   </si>
   <si>
     <t>Number of deceased donor organs arrived</t>
   </si>
   <si>
-    <t>P &gt;&gt;&gt; O</t>
-  </si>
-  <si>
     <t>Number of deceased donor organ arrivals</t>
   </si>
   <si>
@@ -1686,25 +1674,25 @@
     <t>42.779000,+/-1.372047</t>
   </si>
   <si>
-    <t>V2 - 2019</t>
-  </si>
-  <si>
     <t>V1 - avg(2014/2019)</t>
   </si>
   <si>
     <t>V3 - sum(2010/2019)</t>
   </si>
   <si>
-    <t>V1 - avg(2014/2019) * 10y</t>
-  </si>
-  <si>
-    <t>V2 - 2019 * 10y</t>
-  </si>
-  <si>
     <t>V2 - 2019 (v1)</t>
   </si>
   <si>
     <t>V2 - 2019 (v2)</t>
+  </si>
+  <si>
+    <t>5 years average rates</t>
+  </si>
+  <si>
+    <t>Dynamic rates</t>
+  </si>
+  <si>
+    <t>2019 rates</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1880,16 +1868,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1905,6 +1902,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2206,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5C38B3-49E9-458D-8669-DF8830114E35}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2237,16 +2238,16 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2262,10 +2263,10 @@
       <c r="D3">
         <v>190</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <v>190</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="4">
         <v>179</v>
       </c>
@@ -2278,10 +2279,10 @@
       <c r="D4">
         <v>137533.33333333334</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="21">
         <v>153820</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="4">
         <v>129759</v>
       </c>
@@ -2297,10 +2298,10 @@
       <c r="D5">
         <v>106.66666666666666</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <v>100</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="4">
         <v>100</v>
       </c>
@@ -2310,13 +2311,13 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6">
         <v>90031.666666666657</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="21">
         <v>99150</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="4">
         <v>86128</v>
       </c>
@@ -2329,13 +2330,13 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7">
         <v>60</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>100</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="4">
         <v>50</v>
       </c>
@@ -2345,13 +2346,13 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8">
         <v>41980</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="21">
         <v>46889.999999999993</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="4">
         <v>39344</v>
       </c>
@@ -2364,13 +2365,13 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9">
         <v>16.666666666666668</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="21">
         <v>20</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="4">
         <v>15</v>
       </c>
@@ -2380,13 +2381,13 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10">
         <v>10511.666666666668</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="21">
         <v>11600</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="4">
         <v>9920</v>
       </c>
@@ -2401,13 +2402,13 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="21">
         <v>10</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="4">
         <v>15</v>
       </c>
@@ -2417,13 +2418,13 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12">
         <v>9138.3333333333339</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="21">
         <v>8740</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="4">
         <v>9383</v>
       </c>
@@ -2436,13 +2437,13 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13">
         <v>3.333333333333333</v>
       </c>
-      <c r="E13" s="25">
-        <v>0</v>
-      </c>
-      <c r="F13" s="24"/>
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21"/>
       <c r="G13" s="4">
         <v>10</v>
       </c>
@@ -2452,13 +2453,13 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14">
         <v>4455</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="21">
         <v>3680.0000000000005</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="4">
         <v>4695</v>
       </c>
@@ -2471,13 +2472,13 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="26">
-        <v>0</v>
-      </c>
-      <c r="E15" s="25">
-        <v>0</v>
-      </c>
-      <c r="F15" s="24"/>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21"/>
       <c r="G15" s="4">
         <v>5</v>
       </c>
@@ -2487,13 +2488,13 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16">
         <v>2831.666666666667</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="21">
         <v>2699.9999999999995</v>
       </c>
-      <c r="F16" s="24"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="4">
         <v>2856</v>
       </c>
@@ -2506,13 +2507,13 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="26">
-        <v>0</v>
-      </c>
-      <c r="E17" s="25">
-        <v>0</v>
-      </c>
-      <c r="F17" s="24"/>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21"/>
       <c r="G17" s="4">
         <v>1</v>
       </c>
@@ -2522,13 +2523,13 @@
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18">
         <v>385</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="21">
         <v>340</v>
       </c>
-      <c r="F18" s="24"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="4">
         <v>429</v>
       </c>
@@ -2543,13 +2544,13 @@
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19">
         <v>23.333333333333336</v>
       </c>
-      <c r="E19" s="25">
-        <v>0</v>
-      </c>
-      <c r="F19" s="24"/>
+      <c r="E19" s="21">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21"/>
       <c r="G19" s="4">
         <v>25</v>
       </c>
@@ -2559,13 +2560,13 @@
       <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20">
         <v>15215</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="21">
         <v>15639.999999999998</v>
       </c>
-      <c r="F20" s="24"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="4">
         <v>14395</v>
       </c>
@@ -2578,13 +2579,13 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21">
         <v>5</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="21">
         <v>20</v>
       </c>
-      <c r="F21" s="24"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="4">
         <v>12</v>
       </c>
@@ -2594,13 +2595,13 @@
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22">
         <v>8533.3333333333339</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="21">
         <v>8640</v>
       </c>
-      <c r="F22" s="24"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="4">
         <v>8187</v>
       </c>
@@ -2613,13 +2614,13 @@
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="26">
-        <v>0</v>
-      </c>
-      <c r="E23" s="25">
-        <v>0</v>
-      </c>
-      <c r="F23" s="24"/>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21"/>
       <c r="G23" s="4">
         <v>4</v>
       </c>
@@ -2629,13 +2630,13 @@
       <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24">
         <v>4540</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="21">
         <v>4780</v>
       </c>
-      <c r="F24" s="24"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="4">
         <v>4307</v>
       </c>
@@ -2648,13 +2649,13 @@
       <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25">
         <v>5</v>
       </c>
-      <c r="E25" s="25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="24"/>
+      <c r="E25" s="21">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21"/>
       <c r="G25" s="4">
         <v>3</v>
       </c>
@@ -2664,13 +2665,13 @@
       <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26">
         <v>770</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="21">
         <v>869.99999999999989</v>
       </c>
-      <c r="F26" s="24"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="4">
         <v>761</v>
       </c>
@@ -2685,13 +2686,13 @@
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27">
         <v>19.210526315789451</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="21">
         <v>19.210526315789473</v>
       </c>
-      <c r="F27" s="24"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="4">
         <v>20.391061452513966</v>
       </c>
@@ -2701,13 +2702,13 @@
       <c r="C28" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28">
         <v>2.6539020843431863E-2</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="21">
         <v>2.372903393576908E-2</v>
       </c>
-      <c r="F28" s="24"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="4">
         <v>2.8129070045237708E-2</v>
       </c>
@@ -2720,13 +2721,13 @@
       <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29">
         <v>34.21875000000005</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="21">
         <v>36.5</v>
       </c>
-      <c r="F29" s="24"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="4">
         <v>36.5</v>
       </c>
@@ -2736,13 +2737,13 @@
       <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30">
         <v>4.0541291027231155E-2</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="21">
         <v>3.6812909732728188E-2</v>
       </c>
-      <c r="F30" s="24"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="4">
         <v>4.2378785064090659E-2</v>
       </c>
@@ -2755,13 +2756,13 @@
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31">
         <v>60.833333333333186</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="21">
         <v>36.5</v>
       </c>
-      <c r="F31" s="24"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="4">
         <v>73</v>
       </c>
@@ -2771,13 +2772,13 @@
       <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32">
         <v>8.6946164840400186E-2</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="21">
         <v>7.7841757304329282E-2</v>
       </c>
-      <c r="F32" s="24"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="4">
         <v>9.2771451809678732E-2</v>
       </c>
@@ -2790,13 +2791,13 @@
       <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33">
         <v>219</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="21">
         <v>182.5</v>
       </c>
-      <c r="F33" s="24"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="4">
         <v>243.33333333333337</v>
       </c>
@@ -2806,13 +2807,13 @@
       <c r="C34" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34">
         <v>0.34723323291580743</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="21">
         <v>0.31465517241379309</v>
       </c>
-      <c r="F34" s="24"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="4">
         <v>0.36794354838709681</v>
       </c>
@@ -3236,364 +3237,511 @@
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="G71" s="8"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="16"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>552</v>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>546</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>547</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="A74" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D74">
+      <c r="C74" s="25"/>
+      <c r="D74" s="25">
         <v>44190</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="28">
         <v>53220</v>
       </c>
-      <c r="G74">
+      <c r="F74" s="28"/>
+      <c r="G74" s="4">
         <v>40606</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+      <c r="A75" s="5"/>
+      <c r="B75" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D75">
+      <c r="C75" s="25"/>
+      <c r="D75" s="25">
         <v>34305.000000000007</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="28">
         <v>41270</v>
       </c>
-      <c r="G75">
+      <c r="F75" s="28"/>
+      <c r="G75" s="4">
         <v>31517</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+      <c r="A76" s="5"/>
+      <c r="B76" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D76">
+      <c r="C76" s="25"/>
+      <c r="D76" s="25">
         <v>10905</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="28">
         <v>13130</v>
       </c>
-      <c r="G76">
+      <c r="F76" s="28"/>
+      <c r="G76" s="4">
         <v>10137</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77">
+      <c r="A77" s="5"/>
+      <c r="B77" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25">
         <v>3181.666666666667</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="28">
         <v>3900</v>
       </c>
-      <c r="G77">
+      <c r="F77" s="28"/>
+      <c r="G77" s="4">
         <v>2933</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="A78" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D78">
+      <c r="C78" s="25"/>
+      <c r="D78" s="25">
         <v>37613.333333333336</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="28">
         <v>43030</v>
       </c>
-      <c r="G78">
+      <c r="F78" s="28"/>
+      <c r="G78" s="4">
         <v>37426</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
+      <c r="A79" s="5"/>
+      <c r="B79" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D79">
+      <c r="C79" s="25"/>
+      <c r="D79" s="25">
         <v>16570</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="28">
         <v>18890</v>
       </c>
-      <c r="G79">
+      <c r="F79" s="28"/>
+      <c r="G79" s="4">
         <v>16267</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
+      <c r="A80" s="5"/>
+      <c r="B80" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D80">
+      <c r="C80" s="25"/>
+      <c r="D80" s="25">
         <v>4878.3333333333339</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="28">
         <v>5620</v>
       </c>
-      <c r="G80">
+      <c r="F80" s="28"/>
+      <c r="G80" s="4">
         <v>4872</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81">
+      <c r="A81" s="5"/>
+      <c r="B81" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25">
         <v>798.33333333333337</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="28">
         <v>1120</v>
       </c>
-      <c r="G81">
+      <c r="F81" s="28"/>
+      <c r="G81" s="4">
         <v>755</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="25" t="s">
         <v>3</v>
       </c>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+      <c r="A83" s="5"/>
+      <c r="B83" s="25" t="s">
         <v>2</v>
       </c>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
+      <c r="A84" s="5"/>
+      <c r="B84" s="25" t="s">
         <v>1</v>
       </c>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>0</v>
-      </c>
+      <c r="A85" s="5"/>
+      <c r="B85" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D86">
+      <c r="C86" s="25"/>
+      <c r="D86" s="25">
         <v>8.2597872821905366E-2</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="25">
         <v>6.8583239383690348E-2</v>
       </c>
-      <c r="G86">
+      <c r="F86" s="25"/>
+      <c r="G86" s="4">
         <v>8.9888193862975918E-2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
+      <c r="A87" s="5"/>
+      <c r="B87" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D87">
+      <c r="C87" s="25"/>
+      <c r="D87" s="25">
         <v>0.10639848418597873</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="25">
         <v>8.8441967530894117E-2</v>
       </c>
-      <c r="G87">
+      <c r="F87" s="25"/>
+      <c r="G87" s="4">
         <v>0.11581051496018022</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
+      <c r="A88" s="5"/>
+      <c r="B88" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D88">
+      <c r="C88" s="25"/>
+      <c r="D88" s="25">
         <v>0.33470884915176552</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="25">
         <v>0.27798933739527798</v>
       </c>
-      <c r="G88">
+      <c r="F88" s="25"/>
+      <c r="G88" s="4">
         <v>0.36006708099043111</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89">
+      <c r="A89" s="5"/>
+      <c r="B89" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25">
         <v>1.1471974855945521</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="25">
         <v>0.9358974358974359</v>
       </c>
-      <c r="G89">
+      <c r="F89" s="25"/>
+      <c r="G89" s="4">
         <v>1.2444595976815547</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="A90" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="25" t="s">
         <v>3</v>
       </c>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
+      <c r="A91" s="5"/>
+      <c r="B91" s="25" t="s">
         <v>2</v>
       </c>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
+      <c r="A92" s="5"/>
+      <c r="B92" s="25" t="s">
         <v>1</v>
       </c>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>0</v>
-      </c>
+      <c r="A93" s="6"/>
+      <c r="B93" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="8"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="16"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>548</v>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>546</v>
+      </c>
+      <c r="F95" s="27" t="s">
+        <v>547</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C96" t="s">
-        <v>8</v>
-      </c>
+      <c r="C96" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C97" t="s">
-        <v>7</v>
-      </c>
+      <c r="A97" s="5"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="4"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
+      <c r="A98" s="5"/>
+      <c r="B98" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C98" t="s">
-        <v>8</v>
-      </c>
+      <c r="C98" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C99" t="s">
-        <v>7</v>
-      </c>
+      <c r="A99" s="5"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
+      <c r="A100" s="5"/>
+      <c r="B100" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C100" t="s">
-        <v>8</v>
-      </c>
+      <c r="C100" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C101" t="s">
-        <v>7</v>
-      </c>
+      <c r="A101" s="5"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="4"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" t="s">
-        <v>8</v>
-      </c>
+      <c r="A102" s="5"/>
+      <c r="B102" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="4"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C103" t="s">
-        <v>7</v>
-      </c>
+      <c r="A103" s="5"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="A104" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="8"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="18" t="s">
+      <c r="A105" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="11"/>
-      <c r="G105" s="16"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="25"/>
+      <c r="G105" s="4"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>548</v>
+        <v>546</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>547</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -3661,7 +3809,19 @@
       <c r="G112" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="48">
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
@@ -3682,11 +3842,6 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A72:D72"/>
     <mergeCell ref="A94:D94"/>
@@ -3698,6 +3853,11 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3709,8 +3869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFBA70C-A8ED-4C94-8FF2-9C7F6AB93B1B}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3722,7 +3882,7 @@
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
@@ -3731,24 +3891,21 @@
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>548</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>549</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3768,7 +3925,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -3782,7 +3939,7 @@
         <v>153587</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -3799,7 +3956,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -3813,7 +3970,7 @@
         <v>98882</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -3830,7 +3987,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -3844,7 +4001,7 @@
         <v>47340</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -3861,7 +4018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -3875,7 +4032,7 @@
         <v>11638</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3895,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -3909,7 +4066,7 @@
         <v>10620</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -3926,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -3940,7 +4097,7 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -3957,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>7</v>
       </c>
@@ -4140,13 +4297,13 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E27" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F27" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -4154,13 +4311,13 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E28" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F28" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -4171,13 +4328,13 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E29" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F29" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -4185,13 +4342,13 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E30" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F30" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -4202,13 +4359,13 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E31" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F31" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -4216,13 +4373,13 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E32" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F32" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -4233,13 +4390,13 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E33" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F33" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -4247,13 +4404,13 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E34" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F34" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -4267,13 +4424,13 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E35" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F35" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -4281,13 +4438,13 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E36" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F36" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -4298,13 +4455,13 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E37" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F37" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -4312,13 +4469,13 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E38" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -4329,13 +4486,13 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E39" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F39" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -4343,13 +4500,13 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E40" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F40" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -4360,13 +4517,13 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E41" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F41" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -4374,13 +4531,13 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E42" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F42" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -4394,13 +4551,13 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E43" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F43" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4408,13 +4565,13 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E44" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F44" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4425,13 +4582,13 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E45" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F45" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4439,13 +4596,13 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E46" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F46" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4456,13 +4613,13 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E47" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F47" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4470,13 +4627,13 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E48" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F48" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4487,13 +4644,13 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E49" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F49" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4501,13 +4658,13 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E50" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F50" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4518,13 +4675,13 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E51" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F51" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4532,13 +4689,13 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E52" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F52" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4546,13 +4703,13 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E53" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F53" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4560,13 +4717,13 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E54" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F54" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4580,13 +4737,13 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E55" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F55" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4594,13 +4751,13 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E56" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F56" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4611,13 +4768,13 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E57" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F57" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4625,13 +4782,13 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E58" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F58" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4642,13 +4799,13 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E59" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F59" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4656,13 +4813,13 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E60" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F60" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4673,13 +4830,13 @@
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E61" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F61" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4687,13 +4844,13 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E62" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F62" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4707,13 +4864,13 @@
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E63" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F63" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4721,13 +4878,13 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E64" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F64" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4738,13 +4895,13 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E65" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F65" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4752,13 +4909,13 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E66" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F66" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4769,13 +4926,13 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E67" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F67" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4783,13 +4940,13 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E68" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F68" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4800,13 +4957,13 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E69" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F69" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4814,13 +4971,13 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E70" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F70" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4828,13 +4985,13 @@
         <v>41</v>
       </c>
       <c r="D71" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E71" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F71" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4851,18 +5008,18 @@
         <v>17</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>42</v>
+        <v>548</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>43</v>
+        <v>549</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>44</v>
+        <v>550</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -4921,7 +5078,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -5045,13 +5202,13 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E86" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F86" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -5059,13 +5216,13 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E87" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F87" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -5073,13 +5230,13 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E88" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F88" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -5087,13 +5244,13 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E89" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F89" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -5104,13 +5261,13 @@
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E90" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F90" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -5118,13 +5275,13 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E91" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F91" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -5132,13 +5289,13 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E92" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F92" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -5146,13 +5303,13 @@
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E93" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -5169,13 +5326,13 @@
         <v>17</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>42</v>
+        <v>548</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>43</v>
+        <v>549</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>44</v>
+        <v>550</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -5310,13 +5467,13 @@
         <v>20</v>
       </c>
       <c r="D104" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E104" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F104" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -5333,13 +5490,13 @@
         <v>17</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>42</v>
+        <v>548</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>43</v>
+        <v>549</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>44</v>
+        <v>550</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -5403,13 +5560,13 @@
         <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E111" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F111" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G111" s="9"/>
     </row>
@@ -5418,13 +5575,13 @@
         <v>25</v>
       </c>
       <c r="D112" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E112" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F112" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G112" s="9"/>
     </row>
@@ -5461,8 +5618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55DEE44-1884-45EE-808F-D75FB017A4E0}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5478,9 +5635,9 @@
       <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5841,9 +5998,9 @@
       <c r="A35" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -5857,7 +6014,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -5895,7 +6052,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -5973,11 +6130,11 @@
       <c r="A49" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="23"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
@@ -6078,11 +6235,11 @@
       <c r="A59" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="23"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
@@ -6134,8 +6291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B0CFC0-6B65-4A53-A15E-ECBF83434F62}">
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6150,23 +6307,23 @@
       <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>548</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>549</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>44</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -6561,13 +6718,13 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -6575,13 +6732,13 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -6592,13 +6749,13 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -6606,13 +6763,13 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -6623,13 +6780,13 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -6637,13 +6794,13 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -6654,13 +6811,13 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -6668,13 +6825,13 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -6688,13 +6845,13 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -6702,13 +6859,13 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -6719,13 +6876,13 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -6733,13 +6890,13 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F38" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -6750,13 +6907,13 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F39" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -6764,13 +6921,13 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F40" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -6781,13 +6938,13 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F41" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -6795,13 +6952,13 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F42" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -6815,13 +6972,13 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E43" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F43" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -6829,13 +6986,13 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F44" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -6846,13 +7003,13 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E45" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F45" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -6860,13 +7017,13 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F46" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -6877,13 +7034,13 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E47" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F47" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -6891,13 +7048,13 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E48" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F48" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -6908,13 +7065,13 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F49" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -6922,13 +7079,13 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F50" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -6939,13 +7096,13 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E51" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F51" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -6953,13 +7110,13 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E52" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -6967,13 +7124,13 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F53" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -6981,13 +7138,13 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E54" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -7001,13 +7158,13 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E55" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -7015,13 +7172,13 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E56" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -7032,13 +7189,13 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F57" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -7046,13 +7203,13 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E58" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F58" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -7063,13 +7220,13 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E59" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F59" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -7077,13 +7234,13 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E60" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F60" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -7094,13 +7251,13 @@
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E61" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F61" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -7108,13 +7265,13 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E62" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F62" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -7128,13 +7285,13 @@
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E63" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F63" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -7142,13 +7299,13 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -7159,13 +7316,13 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E65" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F65" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -7173,13 +7330,13 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E66" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F66" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -7190,13 +7347,13 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E67" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F67" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -7204,13 +7361,13 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E68" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F68" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -7221,13 +7378,13 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E69" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F69" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -7235,13 +7392,13 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E70" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F70" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -7249,41 +7406,41 @@
         <v>41</v>
       </c>
       <c r="D71" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E71" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F71" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>42</v>
+        <v>548</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>43</v>
+        <v>549</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>44</v>
+        <v>550</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -7342,7 +7499,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -7466,13 +7623,13 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E86" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F86" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -7480,13 +7637,13 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E87" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F87" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -7494,13 +7651,13 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E88" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F88" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -7508,13 +7665,13 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E89" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F89" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -7525,13 +7682,13 @@
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E90" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F90" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -7539,13 +7696,13 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E91" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F91" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -7553,13 +7710,13 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E92" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F92" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -7567,36 +7724,36 @@
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E93" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F93" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>42</v>
+        <v>548</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>43</v>
+        <v>549</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>44</v>
+        <v>550</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -7858,36 +8015,36 @@
         <v>20</v>
       </c>
       <c r="D112" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E112" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F112" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>42</v>
+        <v>548</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>43</v>
+        <v>549</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>44</v>
+        <v>550</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -7951,13 +8108,13 @@
         <v>26</v>
       </c>
       <c r="D119" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E119" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F119" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -7965,13 +8122,13 @@
         <v>25</v>
       </c>
       <c r="D120" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E120" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F120" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -7990,8 +8147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFD2204-262E-44E1-AB55-86008F8A8FE1}">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8003,7 +8160,7 @@
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
@@ -8012,24 +8169,21 @@
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>548</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>549</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -8049,7 +8203,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -8063,7 +8217,7 @@
         <v>160570</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -8080,7 +8234,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -8094,7 +8248,7 @@
         <v>106191</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -8111,7 +8265,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -8125,7 +8279,7 @@
         <v>49835</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -8142,7 +8296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -8156,7 +8310,7 @@
         <v>12623</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -8176,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -8190,7 +8344,7 @@
         <v>15192</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -8207,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -8221,7 +8375,7 @@
         <v>7352</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -8238,7 +8392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>7</v>
       </c>
@@ -8421,13 +8575,13 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E27" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F27" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -8435,13 +8589,13 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F28" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -8452,13 +8606,13 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F29" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -8466,13 +8620,13 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F30" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -8483,13 +8637,13 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F31" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -8497,13 +8651,13 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F32" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -8514,13 +8668,13 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E33" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F33" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -8528,13 +8682,13 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E34" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F34" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -8548,13 +8702,13 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E35" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F35" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -8562,13 +8716,13 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E36" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F36" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -8579,13 +8733,13 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E37" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F37" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -8593,13 +8747,13 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E38" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F38" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -8610,13 +8764,13 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E39" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F39" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -8624,13 +8778,13 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E40" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F40" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -8641,13 +8795,13 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E41" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F41" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -8655,13 +8809,13 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E42" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F42" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -8675,13 +8829,13 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E43" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F43" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -8689,13 +8843,13 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E44" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F44" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -8706,13 +8860,13 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E45" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F45" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -8720,13 +8874,13 @@
         <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E46" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F46" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -8737,13 +8891,13 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E47" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F47" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -8751,13 +8905,13 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E48" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F48" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -8768,13 +8922,13 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E49" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F49" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -8782,13 +8936,13 @@
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F50" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -8799,13 +8953,13 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F51" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -8813,13 +8967,13 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E52" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F52" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -8827,13 +8981,13 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E53" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F53" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -8841,13 +8995,13 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E54" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F54" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -8861,13 +9015,13 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E55" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F55" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -8875,13 +9029,13 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E56" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F56" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -8892,13 +9046,13 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E57" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F57" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -8906,13 +9060,13 @@
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E58" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F58" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -8923,13 +9077,13 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E59" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F59" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -8937,13 +9091,13 @@
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E60" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F60" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -8954,13 +9108,13 @@
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E61" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F61" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -8968,13 +9122,13 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E62" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F62" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -8988,13 +9142,13 @@
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F63" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -9002,13 +9156,13 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E64" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F64" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -9019,13 +9173,13 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E65" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F65" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -9033,13 +9187,13 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E66" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F66" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -9050,13 +9204,13 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E67" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F67" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -9064,13 +9218,13 @@
         <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E68" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F68" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -9081,13 +9235,13 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E69" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F69" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -9095,13 +9249,13 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E70" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F70" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -9109,13 +9263,13 @@
         <v>41</v>
       </c>
       <c r="D71" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E71" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F71" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -9132,18 +9286,18 @@
         <v>17</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>42</v>
+        <v>548</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>43</v>
+        <v>549</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>44</v>
+        <v>550</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -9202,7 +9356,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -9326,13 +9480,13 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E86" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F86" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -9340,13 +9494,13 @@
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E87" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F87" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -9354,13 +9508,13 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E88" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F88" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -9368,13 +9522,13 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E89" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F89" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -9385,13 +9539,13 @@
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E90" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F90" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -9399,13 +9553,13 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E91" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F91" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -9413,13 +9567,13 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E92" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F92" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -9427,13 +9581,13 @@
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E93" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F93" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -9450,13 +9604,13 @@
         <v>17</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>42</v>
+        <v>548</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>43</v>
+        <v>549</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>44</v>
+        <v>550</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -9719,13 +9873,13 @@
         <v>20</v>
       </c>
       <c r="D112" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E112" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F112" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G112" s="9"/>
     </row>
@@ -9733,23 +9887,23 @@
       <c r="A113" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>42</v>
+        <v>548</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>43</v>
+        <v>549</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>44</v>
+        <v>550</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -9813,13 +9967,13 @@
         <v>26</v>
       </c>
       <c r="D119" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E119" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F119" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -9827,13 +9981,13 @@
         <v>25</v>
       </c>
       <c r="D120" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E120" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F120" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>

--- a/data/CONFRONTO_VERSIONI.xlsx
+++ b/data/CONFRONTO_VERSIONI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Analytical" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="553">
   <si>
     <t xml:space="preserve">Waiting list</t>
   </si>
@@ -681,6 +681,9 @@
   </si>
   <si>
     <t xml:space="preserve">Critical + Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
   </si>
   <si>
     <t xml:space="preserve">27.240462,+/-0.361157</t>
@@ -1686,15 +1689,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1716,14 +1719,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1831,7 +1832,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1932,6 +1933,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1955,11 +1960,11 @@
       <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24"/>
@@ -3624,11 +3629,11 @@
       <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.57"/>
   </cols>
@@ -5358,13 +5363,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G62" activeCellId="0" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.01"/>
@@ -5888,6 +5893,9 @@
       <c r="E50" s="24" t="s">
         <v>218</v>
       </c>
+      <c r="F50" s="5" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
@@ -5902,6 +5910,10 @@
       <c r="D51" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="F51" s="0" t="n">
+        <f aca="false">E52+E54+E56+E58</f>
+        <v>167927</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7"/>
@@ -5914,6 +5926,10 @@
       <c r="E52" s="0" t="n">
         <f aca="false">D51+D52</f>
         <v>76150</v>
+      </c>
+      <c r="G52" s="25" t="n">
+        <f aca="false">E52/F51</f>
+        <v>0.45347085340654</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5927,6 +5943,7 @@
       <c r="D53" s="0" t="n">
         <v>60</v>
       </c>
+      <c r="G53" s="25"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7"/>
@@ -5939,6 +5956,10 @@
       <c r="E54" s="0" t="n">
         <f aca="false">D53+D54</f>
         <v>60580</v>
+      </c>
+      <c r="G54" s="25" t="n">
+        <f aca="false">E54/F51</f>
+        <v>0.360751993425715</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5952,6 +5973,7 @@
       <c r="D55" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="G55" s="25"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7"/>
@@ -5964,6 +5986,10 @@
       <c r="E56" s="0" t="n">
         <f aca="false">D55+D56</f>
         <v>22838</v>
+      </c>
+      <c r="G56" s="25" t="n">
+        <f aca="false">E56/F51</f>
+        <v>0.135999571242266</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5977,6 +6003,7 @@
       <c r="D57" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="G57" s="25"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13"/>
@@ -5990,6 +6017,10 @@
       <c r="E58" s="0" t="n">
         <f aca="false">D57+D58</f>
         <v>8359</v>
+      </c>
+      <c r="G58" s="25" t="n">
+        <f aca="false">E58/F51</f>
+        <v>0.0497775819254795</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6060,11 +6091,11 @@
   </sheetPr>
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.42"/>
@@ -6487,13 +6518,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6501,13 +6532,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6518,13 +6549,13 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6532,13 +6563,13 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6549,13 +6580,13 @@
         <v>8</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6563,13 +6594,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6580,13 +6611,13 @@
         <v>8</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6594,13 +6625,13 @@
         <v>9</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6614,13 +6645,13 @@
         <v>8</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6628,13 +6659,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6645,13 +6676,13 @@
         <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6659,13 +6690,13 @@
         <v>9</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6676,13 +6707,13 @@
         <v>8</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6690,13 +6721,13 @@
         <v>9</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6707,13 +6738,13 @@
         <v>8</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6721,13 +6752,13 @@
         <v>9</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6741,13 +6772,13 @@
         <v>8</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6755,13 +6786,13 @@
         <v>9</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6772,13 +6803,13 @@
         <v>8</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6786,13 +6817,13 @@
         <v>9</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6803,13 +6834,13 @@
         <v>8</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6817,13 +6848,13 @@
         <v>9</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6834,13 +6865,13 @@
         <v>8</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6848,13 +6879,13 @@
         <v>9</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6865,13 +6896,13 @@
         <v>7</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6879,13 +6910,13 @@
         <v>10</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6893,13 +6924,13 @@
         <v>11</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6907,13 +6938,13 @@
         <v>12</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6927,13 +6958,13 @@
         <v>8</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6941,13 +6972,13 @@
         <v>9</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6958,13 +6989,13 @@
         <v>8</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6972,13 +7003,13 @@
         <v>9</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6989,13 +7020,13 @@
         <v>8</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7003,13 +7034,13 @@
         <v>9</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7020,13 +7051,13 @@
         <v>8</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7034,13 +7065,13 @@
         <v>9</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7054,13 +7085,13 @@
         <v>8</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7068,13 +7099,13 @@
         <v>9</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7085,13 +7116,13 @@
         <v>8</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7099,13 +7130,13 @@
         <v>9</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7116,13 +7147,13 @@
         <v>8</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7130,13 +7161,13 @@
         <v>9</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7147,13 +7178,13 @@
         <v>8</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7161,13 +7192,13 @@
         <v>9</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,13 +7206,13 @@
         <v>21</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7392,13 +7423,13 @@
         <v>7</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7406,13 +7437,13 @@
         <v>10</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7420,13 +7451,13 @@
         <v>11</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7434,13 +7465,13 @@
         <v>12</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7451,13 +7482,13 @@
         <v>7</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7465,13 +7496,13 @@
         <v>10</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7479,13 +7510,13 @@
         <v>11</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7493,13 +7524,13 @@
         <v>12</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7527,7 +7558,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>7</v>
@@ -7654,7 +7685,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>7</v>
@@ -7784,13 +7815,13 @@
         <v>30</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7877,10 +7908,10 @@
         <v>36</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F119" s="0" t="s">
         <v>199</v>
@@ -7891,13 +7922,13 @@
         <v>37</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -7928,11 +7959,11 @@
       <selection pane="topLeft" activeCell="H114" activeCellId="0" sqref="H114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.57"/>
   </cols>
@@ -8352,13 +8383,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8366,13 +8397,13 @@
         <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8383,13 +8414,13 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8397,13 +8428,13 @@
         <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8414,13 +8445,13 @@
         <v>8</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8428,13 +8459,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8445,13 +8476,13 @@
         <v>8</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8459,13 +8490,13 @@
         <v>9</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8479,13 +8510,13 @@
         <v>8</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8493,13 +8524,13 @@
         <v>9</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8510,13 +8541,13 @@
         <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8524,13 +8555,13 @@
         <v>9</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8541,13 +8572,13 @@
         <v>8</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8555,13 +8586,13 @@
         <v>9</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8572,13 +8603,13 @@
         <v>8</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8586,13 +8617,13 @@
         <v>9</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8606,13 +8637,13 @@
         <v>8</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8620,13 +8651,13 @@
         <v>9</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8637,13 +8668,13 @@
         <v>8</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8651,13 +8682,13 @@
         <v>9</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8668,13 +8699,13 @@
         <v>8</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8682,13 +8713,13 @@
         <v>9</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8699,13 +8730,13 @@
         <v>8</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8713,13 +8744,13 @@
         <v>9</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8730,13 +8761,13 @@
         <v>7</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8744,13 +8775,13 @@
         <v>10</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8758,13 +8789,13 @@
         <v>11</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8772,13 +8803,13 @@
         <v>12</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8792,13 +8823,13 @@
         <v>8</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8806,13 +8837,13 @@
         <v>9</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8823,13 +8854,13 @@
         <v>8</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8837,13 +8868,13 @@
         <v>9</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8854,13 +8885,13 @@
         <v>8</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8868,13 +8899,13 @@
         <v>9</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8885,13 +8916,13 @@
         <v>8</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8899,13 +8930,13 @@
         <v>9</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8919,13 +8950,13 @@
         <v>8</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8933,13 +8964,13 @@
         <v>9</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8950,13 +8981,13 @@
         <v>8</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8964,13 +8995,13 @@
         <v>9</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8981,13 +9012,13 @@
         <v>8</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8995,13 +9026,13 @@
         <v>9</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9012,13 +9043,13 @@
         <v>8</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9026,13 +9057,13 @@
         <v>9</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9040,13 +9071,13 @@
         <v>21</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9257,13 +9288,13 @@
         <v>7</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9271,13 +9302,13 @@
         <v>10</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9285,13 +9316,13 @@
         <v>11</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9299,13 +9330,13 @@
         <v>12</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9316,13 +9347,13 @@
         <v>7</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9330,13 +9361,13 @@
         <v>10</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9344,13 +9375,13 @@
         <v>11</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9358,13 +9389,13 @@
         <v>12</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9392,7 +9423,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>7</v>
@@ -9519,7 +9550,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>7</v>
@@ -9650,13 +9681,13 @@
         <v>30</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G112" s="19"/>
     </row>
@@ -9744,10 +9775,10 @@
         <v>36</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F119" s="0" t="s">
         <v>199</v>
@@ -9758,13 +9789,13 @@
         <v>37</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/data/CONFRONTO_VERSIONI.xlsx
+++ b/data/CONFRONTO_VERSIONI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{B1E5C654-0C66-42AF-AE99-454FDD4F7F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E2315D-E77E-47DC-89F1-60E33C657CCC}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{B1E5C654-0C66-42AF-AE99-454FDD4F7F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA0BFFB-45FB-4106-B3BF-AF7A306ACD6A}"/>
   <bookViews>
-    <workbookView xWindow="24105" yWindow="2340" windowWidth="15375" windowHeight="10500" activeTab="1" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Analytical" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="621">
   <si>
     <t>AB</t>
   </si>
@@ -1693,6 +1693,216 @@
   </si>
   <si>
     <t>2019 rates</t>
+  </si>
+  <si>
+    <t>FINITE SIM</t>
+  </si>
+  <si>
+    <t>172.367188,+/-2.526886</t>
+  </si>
+  <si>
+    <t>127094.789063,+/-65.838934</t>
+  </si>
+  <si>
+    <t>91.773438,+/-1.911101</t>
+  </si>
+  <si>
+    <t>83706.429687,+/-63.809821</t>
+  </si>
+  <si>
+    <t>51.898438,+/-1.566678</t>
+  </si>
+  <si>
+    <t>38642.062500,+/-40.820428</t>
+  </si>
+  <si>
+    <t>16.054688,+/-0.870329</t>
+  </si>
+  <si>
+    <t>9758.406250,+/-21.485803</t>
+  </si>
+  <si>
+    <t>0.054688,+/-0.039924</t>
+  </si>
+  <si>
+    <t>15788.312500,+/-24.813006</t>
+  </si>
+  <si>
+    <t>7915.507813,+/-15.215441</t>
+  </si>
+  <si>
+    <t>0.023438,+/-0.026565</t>
+  </si>
+  <si>
+    <t>4810.820313,+/-12.043740</t>
+  </si>
+  <si>
+    <t>444.351562,+/-3.781892</t>
+  </si>
+  <si>
+    <t>0.093750,+/-0.055689</t>
+  </si>
+  <si>
+    <t>24250.351562,+/-29.681795</t>
+  </si>
+  <si>
+    <t>0.039063,+/-0.034020</t>
+  </si>
+  <si>
+    <t>13789.570312,+/-21.709058</t>
+  </si>
+  <si>
+    <t>0.015625,+/-0.021777</t>
+  </si>
+  <si>
+    <t>7248.742188,+/-15.706780</t>
+  </si>
+  <si>
+    <t>783.765625,+/-4.666958</t>
+  </si>
+  <si>
+    <t>36.096144,+/-0.539865</t>
+  </si>
+  <si>
+    <t>0.048609,+/-0.000037</t>
+  </si>
+  <si>
+    <t>68.279959,+/-1.442980</t>
+  </si>
+  <si>
+    <t>0.073805,+/-0.000065</t>
+  </si>
+  <si>
+    <t>122.866731,+/-4.033407</t>
+  </si>
+  <si>
+    <t>0.159880,+/-0.000191</t>
+  </si>
+  <si>
+    <t>428.165529,+/-27.122176</t>
+  </si>
+  <si>
+    <t>0.633176,+/-0.001373</t>
+  </si>
+  <si>
+    <t>0.000207,+/-0.000004</t>
+  </si>
+  <si>
+    <t>1156.743690,+/-2.924818</t>
+  </si>
+  <si>
+    <t>0.000119,+/-0.000003</t>
+  </si>
+  <si>
+    <t>1083.112541,+/-2.770515</t>
+  </si>
+  <si>
+    <t>0.000548,+/-0.000019</t>
+  </si>
+  <si>
+    <t>1149.633799,+/-3.179842</t>
+  </si>
+  <si>
+    <t>0.000963,+/-0.000072</t>
+  </si>
+  <si>
+    <t>30.730957,+/-1.159414</t>
+  </si>
+  <si>
+    <t>0.000001,+/-0.000000</t>
+  </si>
+  <si>
+    <t>1156.673210,+/-2.924768</t>
+  </si>
+  <si>
+    <t>1083.013457,+/-2.770452</t>
+  </si>
+  <si>
+    <t>1149.403049,+/-3.179625</t>
+  </si>
+  <si>
+    <t>0.000001,+/-0.000001</t>
+  </si>
+  <si>
+    <t>30.289359,+/-1.159776</t>
+  </si>
+  <si>
+    <t>0.051342,+/-0.000057</t>
+  </si>
+  <si>
+    <t>0.073047,+/-0.000096</t>
+  </si>
+  <si>
+    <t>0.164772,+/-0.000516</t>
+  </si>
+  <si>
+    <t>0.552737,+/-0.004440</t>
+  </si>
+  <si>
+    <t>0.000206,+/-0.000004</t>
+  </si>
+  <si>
+    <t>0.070479,+/-0.000070</t>
+  </si>
+  <si>
+    <t>0.099084,+/-0.000113</t>
+  </si>
+  <si>
+    <t>0.000547,+/-0.000019</t>
+  </si>
+  <si>
+    <t>0.230750,+/-0.000405</t>
+  </si>
+  <si>
+    <t>0.441597,+/-0.001283</t>
+  </si>
+  <si>
+    <t>0.002910,+/-0.000057</t>
+  </si>
+  <si>
+    <t>16298.339768,+/-31.812570</t>
+  </si>
+  <si>
+    <t>0.001193,+/-0.000035</t>
+  </si>
+  <si>
+    <t>10863.419460,+/-23.434437</t>
+  </si>
+  <si>
+    <t>0.002357,+/-0.000082</t>
+  </si>
+  <si>
+    <t>4945.838592,+/-11.873440</t>
+  </si>
+  <si>
+    <t>0.001330,+/-0.000099</t>
+  </si>
+  <si>
+    <t>42.498847,+/-1.679224</t>
+  </si>
+  <si>
+    <t>0.000009,+/-0.000003</t>
+  </si>
+  <si>
+    <t>16297.346701,+/-31.812556</t>
+  </si>
+  <si>
+    <t>0.000002,+/-0.000001</t>
+  </si>
+  <si>
+    <t>10862.425660,+/-23.434404</t>
+  </si>
+  <si>
+    <t>0.000003,+/-0.000002</t>
+  </si>
+  <si>
+    <t>4944.845900,+/-11.873377</t>
+  </si>
+  <si>
+    <t>0.000001,+/-0.000002</t>
+  </si>
+  <si>
+    <t>41.889301,+/-1.678858</t>
   </si>
 </sst>
 </file>
@@ -1838,7 +2048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1859,34 +2069,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2224,12 +2424,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="11"/>
       <c r="G1" s="16"/>
     </row>
@@ -2263,10 +2463,10 @@
       <c r="D3">
         <v>190</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>190</v>
       </c>
-      <c r="F3" s="21"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="4">
         <v>179</v>
       </c>
@@ -2279,10 +2479,10 @@
       <c r="D4">
         <v>137533.33333333334</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <v>153820</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="4">
         <v>129759</v>
       </c>
@@ -2298,10 +2498,10 @@
       <c r="D5">
         <v>106.66666666666666</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <v>100</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="4">
         <v>100</v>
       </c>
@@ -2314,10 +2514,10 @@
       <c r="D6">
         <v>90031.666666666657</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="18">
         <v>99150</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="4">
         <v>86128</v>
       </c>
@@ -2333,10 +2533,10 @@
       <c r="D7">
         <v>60</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <v>100</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="4">
         <v>50</v>
       </c>
@@ -2349,10 +2549,10 @@
       <c r="D8">
         <v>41980</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="18">
         <v>46889.999999999993</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="4">
         <v>39344</v>
       </c>
@@ -2368,10 +2568,10 @@
       <c r="D9">
         <v>16.666666666666668</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="18">
         <v>20</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="4">
         <v>15</v>
       </c>
@@ -2384,10 +2584,10 @@
       <c r="D10">
         <v>10511.666666666668</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="18">
         <v>11600</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="4">
         <v>9920</v>
       </c>
@@ -2405,10 +2605,10 @@
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="18">
         <v>10</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="4">
         <v>15</v>
       </c>
@@ -2421,10 +2621,10 @@
       <c r="D12">
         <v>9138.3333333333339</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="18">
         <v>8740</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="4">
         <v>9383</v>
       </c>
@@ -2440,10 +2640,10 @@
       <c r="D13">
         <v>3.333333333333333</v>
       </c>
-      <c r="E13" s="21">
-        <v>0</v>
-      </c>
-      <c r="F13" s="21"/>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18"/>
       <c r="G13" s="4">
         <v>10</v>
       </c>
@@ -2456,10 +2656,10 @@
       <c r="D14">
         <v>4455</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="18">
         <v>3680.0000000000005</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="4">
         <v>4695</v>
       </c>
@@ -2475,10 +2675,10 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="21">
-        <v>0</v>
-      </c>
-      <c r="F15" s="21"/>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18"/>
       <c r="G15" s="4">
         <v>5</v>
       </c>
@@ -2491,10 +2691,10 @@
       <c r="D16">
         <v>2831.666666666667</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="18">
         <v>2699.9999999999995</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="4">
         <v>2856</v>
       </c>
@@ -2510,10 +2710,10 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="21">
-        <v>0</v>
-      </c>
-      <c r="F17" s="21"/>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18"/>
       <c r="G17" s="4">
         <v>1</v>
       </c>
@@ -2526,10 +2726,10 @@
       <c r="D18">
         <v>385</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="18">
         <v>340</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="4">
         <v>429</v>
       </c>
@@ -2547,10 +2747,10 @@
       <c r="D19">
         <v>23.333333333333336</v>
       </c>
-      <c r="E19" s="21">
-        <v>0</v>
-      </c>
-      <c r="F19" s="21"/>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="4">
         <v>25</v>
       </c>
@@ -2563,10 +2763,10 @@
       <c r="D20">
         <v>15215</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="18">
         <v>15639.999999999998</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="4">
         <v>14395</v>
       </c>
@@ -2582,10 +2782,10 @@
       <c r="D21">
         <v>5</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="18">
         <v>20</v>
       </c>
-      <c r="F21" s="21"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="4">
         <v>12</v>
       </c>
@@ -2598,10 +2798,10 @@
       <c r="D22">
         <v>8533.3333333333339</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="18">
         <v>8640</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="4">
         <v>8187</v>
       </c>
@@ -2617,10 +2817,10 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="21">
-        <v>0</v>
-      </c>
-      <c r="F23" s="21"/>
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18"/>
       <c r="G23" s="4">
         <v>4</v>
       </c>
@@ -2633,10 +2833,10 @@
       <c r="D24">
         <v>4540</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="18">
         <v>4780</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="4">
         <v>4307</v>
       </c>
@@ -2652,10 +2852,10 @@
       <c r="D25">
         <v>5</v>
       </c>
-      <c r="E25" s="21">
-        <v>0</v>
-      </c>
-      <c r="F25" s="21"/>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="4">
         <v>3</v>
       </c>
@@ -2668,10 +2868,10 @@
       <c r="D26">
         <v>770</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="18">
         <v>869.99999999999989</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="4">
         <v>761</v>
       </c>
@@ -2689,10 +2889,10 @@
       <c r="D27">
         <v>19.210526315789451</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="18">
         <v>19.210526315789473</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="4">
         <v>20.391061452513966</v>
       </c>
@@ -2705,10 +2905,10 @@
       <c r="D28">
         <v>2.6539020843431863E-2</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="18">
         <v>2.372903393576908E-2</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="4">
         <v>2.8129070045237708E-2</v>
       </c>
@@ -2724,10 +2924,10 @@
       <c r="D29">
         <v>34.21875000000005</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="18">
         <v>36.5</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="4">
         <v>36.5</v>
       </c>
@@ -2740,10 +2940,10 @@
       <c r="D30">
         <v>4.0541291027231155E-2</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="18">
         <v>3.6812909732728188E-2</v>
       </c>
-      <c r="F30" s="21"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="4">
         <v>4.2378785064090659E-2</v>
       </c>
@@ -2759,10 +2959,10 @@
       <c r="D31">
         <v>60.833333333333186</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="18">
         <v>36.5</v>
       </c>
-      <c r="F31" s="21"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="4">
         <v>73</v>
       </c>
@@ -2775,10 +2975,10 @@
       <c r="D32">
         <v>8.6946164840400186E-2</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="18">
         <v>7.7841757304329282E-2</v>
       </c>
-      <c r="F32" s="21"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="4">
         <v>9.2771451809678732E-2</v>
       </c>
@@ -2794,10 +2994,10 @@
       <c r="D33">
         <v>219</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="18">
         <v>182.5</v>
       </c>
-      <c r="F33" s="21"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="4">
         <v>243.33333333333337</v>
       </c>
@@ -2810,10 +3010,10 @@
       <c r="D34">
         <v>0.34723323291580743</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="18">
         <v>0.31465517241379309</v>
       </c>
-      <c r="F34" s="21"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="4">
         <v>0.36794354838709681</v>
       </c>
@@ -3240,19 +3440,15 @@
       <c r="A71" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="16"/>
@@ -3261,15 +3457,13 @@
       <c r="A73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="26" t="s">
+      <c r="D73" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="E73" s="27" t="s">
+      <c r="E73" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="F73" s="27" t="s">
+      <c r="F73" s="15" t="s">
         <v>547</v>
       </c>
       <c r="G73" s="17" t="s">
@@ -3280,68 +3474,64 @@
       <c r="A74" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25">
+      <c r="D74">
         <v>44190</v>
       </c>
-      <c r="E74" s="28">
+      <c r="E74" s="18">
         <v>53220</v>
       </c>
-      <c r="F74" s="28"/>
+      <c r="F74" s="18"/>
       <c r="G74" s="4">
         <v>40606</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="25" t="s">
+      <c r="B75" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25">
+      <c r="D75">
         <v>34305.000000000007</v>
       </c>
-      <c r="E75" s="28">
+      <c r="E75" s="18">
         <v>41270</v>
       </c>
-      <c r="F75" s="28"/>
+      <c r="F75" s="18"/>
       <c r="G75" s="4">
         <v>31517</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
-      <c r="B76" s="25" t="s">
+      <c r="B76" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25">
+      <c r="D76">
         <v>10905</v>
       </c>
-      <c r="E76" s="28">
+      <c r="E76" s="18">
         <v>13130</v>
       </c>
-      <c r="F76" s="28"/>
+      <c r="F76" s="18"/>
       <c r="G76" s="4">
         <v>10137</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
-      <c r="B77" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25">
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77">
         <v>3181.666666666667</v>
       </c>
-      <c r="E77" s="28">
+      <c r="E77" s="18">
         <v>3900</v>
       </c>
-      <c r="F77" s="28"/>
+      <c r="F77" s="18"/>
       <c r="G77" s="4">
         <v>2933</v>
       </c>
@@ -3350,68 +3540,64 @@
       <c r="A78" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B78" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25">
+      <c r="D78">
         <v>37613.333333333336</v>
       </c>
-      <c r="E78" s="28">
+      <c r="E78" s="18">
         <v>43030</v>
       </c>
-      <c r="F78" s="28"/>
+      <c r="F78" s="18"/>
       <c r="G78" s="4">
         <v>37426</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
-      <c r="B79" s="25" t="s">
+      <c r="B79" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25">
+      <c r="D79">
         <v>16570</v>
       </c>
-      <c r="E79" s="28">
+      <c r="E79" s="18">
         <v>18890</v>
       </c>
-      <c r="F79" s="28"/>
+      <c r="F79" s="18"/>
       <c r="G79" s="4">
         <v>16267</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
-      <c r="B80" s="25" t="s">
+      <c r="B80" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25">
+      <c r="D80">
         <v>4878.3333333333339</v>
       </c>
-      <c r="E80" s="28">
+      <c r="E80" s="18">
         <v>5620</v>
       </c>
-      <c r="F80" s="28"/>
+      <c r="F80" s="18"/>
       <c r="G80" s="4">
         <v>4872</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
-      <c r="B81" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25">
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81">
         <v>798.33333333333337</v>
       </c>
-      <c r="E81" s="28">
+      <c r="E81" s="18">
         <v>1120</v>
       </c>
-      <c r="F81" s="28"/>
+      <c r="F81" s="18"/>
       <c r="G81" s="4">
         <v>755</v>
       </c>
@@ -3420,114 +3606,98 @@
       <c r="A82" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B82" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
-      <c r="B83" s="25" t="s">
+      <c r="B83" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="25" t="s">
+      <c r="B84" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
-      <c r="B85" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="B86" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25">
+      <c r="D86">
         <v>8.2597872821905366E-2</v>
       </c>
-      <c r="E86" s="25">
+      <c r="E86">
         <v>6.8583239383690348E-2</v>
       </c>
-      <c r="F86" s="25"/>
       <c r="G86" s="4">
         <v>8.9888193862975918E-2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
-      <c r="B87" s="25" t="s">
+      <c r="B87" t="s">
         <v>2</v>
       </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25">
+      <c r="D87">
         <v>0.10639848418597873</v>
       </c>
-      <c r="E87" s="25">
+      <c r="E87">
         <v>8.8441967530894117E-2</v>
       </c>
-      <c r="F87" s="25"/>
       <c r="G87" s="4">
         <v>0.11581051496018022</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="25" t="s">
+      <c r="B88" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25">
+      <c r="D88">
         <v>0.33470884915176552</v>
       </c>
-      <c r="E88" s="25">
+      <c r="E88">
         <v>0.27798933739527798</v>
       </c>
-      <c r="F88" s="25"/>
       <c r="G88" s="4">
         <v>0.36006708099043111</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
-      <c r="B89" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25">
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89">
         <v>1.1471974855945521</v>
       </c>
-      <c r="E89" s="25">
+      <c r="E89">
         <v>0.9358974358974359</v>
       </c>
-      <c r="F89" s="25"/>
       <c r="G89" s="4">
         <v>1.2444595976815547</v>
       </c>
@@ -3536,35 +3706,23 @@
       <c r="A90" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="B90" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
-      <c r="B91" s="25" t="s">
+      <c r="B91" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
       <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
-      <c r="B92" s="25" t="s">
+      <c r="B92" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
       <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -3579,12 +3737,12 @@
       <c r="G93" s="8"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
       <c r="G94" s="16"/>
@@ -3593,15 +3751,13 @@
       <c r="A95" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="26" t="s">
+      <c r="D95" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="E95" s="27" t="s">
+      <c r="E95" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="F95" s="27" t="s">
+      <c r="F95" s="15" t="s">
         <v>547</v>
       </c>
       <c r="G95" s="17" t="s">
@@ -3612,98 +3768,70 @@
       <c r="A96" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B96" s="25" t="s">
+      <c r="B96" t="s">
         <v>3</v>
       </c>
-      <c r="C96" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
       <c r="G97" s="4"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
-      <c r="B98" s="25" t="s">
+      <c r="B98" t="s">
         <v>2</v>
       </c>
-      <c r="C98" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
       <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
       <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
-      <c r="B100" s="25" t="s">
+      <c r="B100" t="s">
         <v>1</v>
       </c>
-      <c r="C100" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
       <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
       <c r="G101" s="4"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
-      <c r="B102" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
       <c r="G102" s="4"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
       <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -3718,13 +3846,12 @@
       <c r="G104" s="8"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="25"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
       <c r="G105" s="4"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -3810,14 +3937,30 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="E82:F82"/>
     <mergeCell ref="E83:F83"/>
     <mergeCell ref="E84:F84"/>
@@ -3834,30 +3977,14 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3869,7 +3996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFBA70C-A8ED-4C94-8FF2-9C7F6AB93B1B}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A72" sqref="A72:E72"/>
     </sheetView>
   </sheetViews>
@@ -3883,13 +4010,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4995,13 +5122,13 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
@@ -5313,13 +5440,13 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -5477,13 +5604,13 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -5618,8 +5745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55DEE44-1884-45EE-808F-D75FB017A4E0}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5632,12 +5759,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5670,7 +5797,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="4">
-        <v>129759</v>
+        <v>129874</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5691,7 +5818,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="4">
-        <v>86128</v>
+        <v>86230</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -5712,7 +5839,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="4">
-        <v>39344</v>
+        <v>39390</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5733,7 +5860,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="4">
-        <v>9920</v>
+        <v>9936</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -5995,12 +6122,12 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -6127,14 +6254,14 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
@@ -6232,14 +6359,14 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="23"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="25"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
@@ -6289,30 +6416,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B0CFC0-6B65-4A53-A15E-ECBF83434F62}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -6325,8 +6454,11 @@
       <c r="F2" s="10" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -6345,8 +6477,14 @@
       <c r="F3">
         <v>227</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>552</v>
+      </c>
+      <c r="H3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -6359,8 +6497,14 @@
       <c r="F4">
         <v>152041</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>553</v>
+      </c>
+      <c r="H4">
+        <v>129874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -6376,8 +6520,14 @@
       <c r="F5">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>554</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -6390,8 +6540,14 @@
       <c r="F6">
         <v>100509</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>555</v>
+      </c>
+      <c r="H6">
+        <v>86230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -6407,8 +6563,14 @@
       <c r="F7">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -6421,8 +6583,14 @@
       <c r="F8">
         <v>47151</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>557</v>
+      </c>
+      <c r="H8">
+        <v>39390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -6438,8 +6606,14 @@
       <c r="F9">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>558</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -6452,8 +6626,14 @@
       <c r="F10">
         <v>11905</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>559</v>
+      </c>
+      <c r="H10">
+        <v>9936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -6472,8 +6652,14 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>560</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -6486,8 +6672,14 @@
       <c r="F12">
         <v>14571</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>561</v>
+      </c>
+      <c r="H12">
+        <v>9383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -6503,8 +6695,14 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>271</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -6517,8 +6715,14 @@
       <c r="F14">
         <v>6975</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>562</v>
+      </c>
+      <c r="H14">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -6534,8 +6738,14 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>563</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>7</v>
       </c>
@@ -6548,8 +6758,14 @@
       <c r="F16">
         <v>4478</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>564</v>
+      </c>
+      <c r="H16">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -6565,8 +6781,14 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>7</v>
       </c>
@@ -6579,8 +6801,14 @@
       <c r="F18">
         <v>411</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>565</v>
+      </c>
+      <c r="H18">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -6599,8 +6827,14 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>566</v>
+      </c>
+      <c r="H19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>7</v>
       </c>
@@ -6613,8 +6847,14 @@
       <c r="F20">
         <v>24236</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>567</v>
+      </c>
+      <c r="H20">
+        <v>14395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>2</v>
       </c>
@@ -6630,8 +6870,14 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>568</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>7</v>
       </c>
@@ -6644,8 +6890,14 @@
       <c r="F22">
         <v>13332</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>569</v>
+      </c>
+      <c r="H22">
+        <v>8187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>1</v>
       </c>
@@ -6661,8 +6913,14 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>570</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>7</v>
       </c>
@@ -6675,8 +6933,14 @@
       <c r="F24">
         <v>7122</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>571</v>
+      </c>
+      <c r="H24">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -6692,8 +6956,14 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>271</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>7</v>
       </c>
@@ -6706,8 +6976,14 @@
       <c r="F26">
         <v>763</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>572</v>
+      </c>
+      <c r="H26">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -6726,8 +7002,14 @@
       <c r="F27" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>573</v>
+      </c>
+      <c r="H27">
+        <v>20.391061452513966</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>7</v>
       </c>
@@ -6740,8 +7022,14 @@
       <c r="F28" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>574</v>
+      </c>
+      <c r="H28">
+        <v>2.8129070045237708E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -6757,8 +7045,14 @@
       <c r="F29" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>575</v>
+      </c>
+      <c r="H29">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>7</v>
       </c>
@@ -6771,8 +7065,14 @@
       <c r="F30" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>576</v>
+      </c>
+      <c r="H30">
+        <v>4.2378785064090665E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -6788,8 +7088,14 @@
       <c r="F31" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>577</v>
+      </c>
+      <c r="H31">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>7</v>
       </c>
@@ -6802,8 +7108,14 @@
       <c r="F32" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>578</v>
+      </c>
+      <c r="H32">
+        <v>9.2771451809678718E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>0</v>
       </c>
@@ -6819,8 +7131,14 @@
       <c r="F33" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>579</v>
+      </c>
+      <c r="H33">
+        <v>243.33333333333337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>7</v>
       </c>
@@ -6833,8 +7151,14 @@
       <c r="F34" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>580</v>
+      </c>
+      <c r="H34">
+        <v>0.3679435483870967</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -6853,8 +7177,11 @@
       <c r="F35" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>7</v>
       </c>
@@ -6867,8 +7194,11 @@
       <c r="F36" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>2</v>
       </c>
@@ -6884,8 +7214,11 @@
       <c r="F37" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>7</v>
       </c>
@@ -6898,8 +7231,11 @@
       <c r="F38" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>1</v>
       </c>
@@ -6915,8 +7251,11 @@
       <c r="F39" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>7</v>
       </c>
@@ -6929,8 +7268,11 @@
       <c r="F40" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -6946,8 +7288,11 @@
       <c r="F41" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>7</v>
       </c>
@@ -6960,8 +7305,11 @@
       <c r="F42" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -6980,8 +7328,11 @@
       <c r="F43" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>7</v>
       </c>
@@ -6994,8 +7345,11 @@
       <c r="F44" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>2</v>
       </c>
@@ -7011,8 +7365,11 @@
       <c r="F45" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>7</v>
       </c>
@@ -7025,8 +7382,11 @@
       <c r="F46" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>1</v>
       </c>
@@ -7042,8 +7402,11 @@
       <c r="F47" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>7</v>
       </c>
@@ -7056,8 +7419,11 @@
       <c r="F48" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>0</v>
       </c>
@@ -7073,8 +7439,11 @@
       <c r="F49" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>7</v>
       </c>
@@ -7087,17 +7456,11 @@
       <c r="F50" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" t="s">
-        <v>130</v>
-      </c>
+      <c r="G50" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
         <v>74</v>
       </c>
@@ -7105,13 +7468,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>131</v>
-      </c>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
         <v>75</v>
       </c>
@@ -7119,13 +7476,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>132</v>
-      </c>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
         <v>76</v>
       </c>
@@ -7133,13 +7484,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>0</v>
-      </c>
-      <c r="D54" t="s">
-        <v>133</v>
-      </c>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
         <v>77</v>
       </c>
@@ -7147,9 +7492,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -7158,30 +7503,24 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="G55" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>135</v>
-      </c>
-      <c r="E56" t="s">
-        <v>79</v>
-      </c>
-      <c r="F56" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+      <c r="G56" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>2</v>
       </c>
@@ -7189,30 +7528,24 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>136</v>
-      </c>
-      <c r="E57" t="s">
-        <v>80</v>
-      </c>
-      <c r="F57" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="G57" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>137</v>
-      </c>
-      <c r="E58" t="s">
-        <v>81</v>
-      </c>
-      <c r="F58" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+      <c r="G58" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>1</v>
       </c>
@@ -7220,30 +7553,24 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>138</v>
-      </c>
-      <c r="E59" t="s">
-        <v>82</v>
-      </c>
-      <c r="F59" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="G59" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>139</v>
-      </c>
-      <c r="E60" t="s">
-        <v>83</v>
-      </c>
-      <c r="F60" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+      <c r="G60" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>0</v>
       </c>
@@ -7251,32 +7578,26 @@
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>140</v>
-      </c>
-      <c r="E61" t="s">
-        <v>84</v>
-      </c>
-      <c r="F61" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="G61" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" t="s">
-        <v>85</v>
-      </c>
-      <c r="F62" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+      <c r="G62" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -7285,30 +7606,36 @@
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+      <c r="G63" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F64" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="G64" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>2</v>
       </c>
@@ -7316,30 +7643,36 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E65" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F65" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+      <c r="G65" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E66" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F66" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+      <c r="G66" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>1</v>
       </c>
@@ -7347,230 +7680,275 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" t="s">
+        <v>468</v>
+      </c>
+      <c r="G67" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" t="s">
+        <v>83</v>
+      </c>
+      <c r="F68" t="s">
+        <v>469</v>
+      </c>
+      <c r="G68" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" t="s">
+        <v>84</v>
+      </c>
+      <c r="F69" t="s">
+        <v>470</v>
+      </c>
+      <c r="G69" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70" t="s">
+        <v>85</v>
+      </c>
+      <c r="F70" t="s">
+        <v>471</v>
+      </c>
+      <c r="G70" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71" t="s">
+        <v>86</v>
+      </c>
+      <c r="F71" t="s">
+        <v>472</v>
+      </c>
+      <c r="G71" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" t="s">
+        <v>473</v>
+      </c>
+      <c r="G72" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" t="s">
+        <v>88</v>
+      </c>
+      <c r="F73" t="s">
+        <v>474</v>
+      </c>
+      <c r="G73" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74" t="s">
+        <v>89</v>
+      </c>
+      <c r="F74" t="s">
+        <v>475</v>
+      </c>
+      <c r="G74" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
         <v>146</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E75" t="s">
         <v>90</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F75" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="G75" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
         <v>147</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E76" t="s">
         <v>91</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F76" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="G76" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
         <v>148</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E77" t="s">
         <v>92</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F77" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="G77" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
         <v>149</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E78" t="s">
         <v>93</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F78" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="G78" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>41</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D79" t="s">
         <v>94</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E79" t="s">
         <v>94</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F79" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="20" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F81" s="10" t="s">
         <v>550</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>44</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74">
-        <v>75418</v>
-      </c>
-      <c r="E74">
-        <v>54271</v>
-      </c>
-      <c r="F74">
-        <v>70538</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75">
-        <v>59359</v>
-      </c>
-      <c r="E75">
-        <v>42098</v>
-      </c>
-      <c r="F75">
-        <v>55604</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>18668</v>
-      </c>
-      <c r="E76">
-        <v>14104</v>
-      </c>
-      <c r="F76">
-        <v>17444</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>5394</v>
-      </c>
-      <c r="E77">
-        <v>4107</v>
-      </c>
-      <c r="F77">
-        <v>5075</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>45</v>
-      </c>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78">
-        <v>64460</v>
-      </c>
-      <c r="E78">
-        <v>62782</v>
-      </c>
-      <c r="F78">
-        <v>60178</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79">
-        <v>28434</v>
-      </c>
-      <c r="E79">
-        <v>26701</v>
-      </c>
-      <c r="F79">
-        <v>26637</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>8459</v>
-      </c>
-      <c r="E80">
-        <v>8752</v>
-      </c>
-      <c r="F80">
-        <v>7861</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>1446</v>
-      </c>
-      <c r="E81">
-        <v>834</v>
-      </c>
-      <c r="F81">
-        <v>868</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
       </c>
       <c r="D82">
-        <v>68</v>
+        <v>75418</v>
       </c>
       <c r="E82">
-        <v>59</v>
+        <v>54271</v>
       </c>
       <c r="F82">
-        <v>46</v>
+        <v>70538</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -7578,13 +7956,13 @@
         <v>2</v>
       </c>
       <c r="D83">
-        <v>103</v>
+        <v>59359</v>
       </c>
       <c r="E83">
-        <v>63</v>
+        <v>42098</v>
       </c>
       <c r="F83">
-        <v>69</v>
+        <v>55604</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -7592,13 +7970,13 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>121</v>
+        <v>18668</v>
       </c>
       <c r="E84">
-        <v>83</v>
+        <v>14104</v>
       </c>
       <c r="F84">
-        <v>70</v>
+        <v>17444</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -7606,286 +7984,277 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1896</v>
+        <v>5394</v>
       </c>
       <c r="E85">
-        <v>528</v>
+        <v>4107</v>
       </c>
       <c r="F85">
-        <v>1825</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
       </c>
-      <c r="D86" t="s">
-        <v>46</v>
-      </c>
-      <c r="E86" t="s">
-        <v>95</v>
-      </c>
-      <c r="F86" t="s">
-        <v>481</v>
+      <c r="D86">
+        <v>64460</v>
+      </c>
+      <c r="E86">
+        <v>62782</v>
+      </c>
+      <c r="F86">
+        <v>60178</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>2</v>
       </c>
-      <c r="D87" t="s">
-        <v>47</v>
-      </c>
-      <c r="E87" t="s">
-        <v>96</v>
-      </c>
-      <c r="F87" t="s">
-        <v>482</v>
+      <c r="D87">
+        <v>28434</v>
+      </c>
+      <c r="E87">
+        <v>26701</v>
+      </c>
+      <c r="F87">
+        <v>26637</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>1</v>
       </c>
-      <c r="D88" t="s">
-        <v>48</v>
-      </c>
-      <c r="E88" t="s">
-        <v>97</v>
-      </c>
-      <c r="F88" t="s">
-        <v>483</v>
+      <c r="D88">
+        <v>8459</v>
+      </c>
+      <c r="E88">
+        <v>8752</v>
+      </c>
+      <c r="F88">
+        <v>7861</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>0</v>
       </c>
-      <c r="D89" t="s">
-        <v>49</v>
-      </c>
-      <c r="E89" t="s">
-        <v>98</v>
-      </c>
-      <c r="F89" t="s">
-        <v>484</v>
+      <c r="D89">
+        <v>1446</v>
+      </c>
+      <c r="E89">
+        <v>834</v>
+      </c>
+      <c r="F89">
+        <v>868</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
       </c>
-      <c r="D90" t="s">
-        <v>150</v>
-      </c>
-      <c r="E90" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" t="s">
-        <v>485</v>
+      <c r="D90">
+        <v>68</v>
+      </c>
+      <c r="E90">
+        <v>59</v>
+      </c>
+      <c r="F90">
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>2</v>
       </c>
-      <c r="D91" t="s">
-        <v>151</v>
-      </c>
-      <c r="E91" t="s">
-        <v>100</v>
-      </c>
-      <c r="F91" t="s">
-        <v>486</v>
+      <c r="D91">
+        <v>103</v>
+      </c>
+      <c r="E91">
+        <v>63</v>
+      </c>
+      <c r="F91">
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>1</v>
       </c>
-      <c r="D92" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" t="s">
-        <v>101</v>
-      </c>
-      <c r="F92" t="s">
-        <v>487</v>
+      <c r="D92">
+        <v>121</v>
+      </c>
+      <c r="E92">
+        <v>83</v>
+      </c>
+      <c r="F92">
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>0</v>
       </c>
-      <c r="D93" t="s">
-        <v>153</v>
-      </c>
-      <c r="E93" t="s">
-        <v>102</v>
-      </c>
-      <c r="F93" t="s">
-        <v>488</v>
+      <c r="D93">
+        <v>1896</v>
+      </c>
+      <c r="E93">
+        <v>528</v>
+      </c>
+      <c r="F93">
+        <v>1825</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" t="s">
+        <v>95</v>
+      </c>
+      <c r="F94" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>550</v>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>47</v>
+      </c>
+      <c r="E95" t="s">
+        <v>96</v>
+      </c>
+      <c r="F95" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>18</v>
-      </c>
       <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>48</v>
+      </c>
+      <c r="E96" t="s">
+        <v>97</v>
+      </c>
+      <c r="F96" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>49</v>
+      </c>
+      <c r="E97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F97" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
         <v>3</v>
       </c>
-      <c r="C96" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96">
-        <v>190</v>
-      </c>
-      <c r="E96">
-        <v>153</v>
-      </c>
-      <c r="F96">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C97" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97">
-        <v>105224</v>
-      </c>
-      <c r="E97">
-        <v>83034</v>
-      </c>
-      <c r="F97">
-        <v>98558</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
+      <c r="D98" t="s">
+        <v>150</v>
+      </c>
+      <c r="E98" t="s">
+        <v>99</v>
+      </c>
+      <c r="F98" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
         <v>2</v>
       </c>
-      <c r="C98" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98">
-        <v>105</v>
-      </c>
-      <c r="E98">
-        <v>115</v>
-      </c>
-      <c r="F98">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C99" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99">
-        <v>73938</v>
-      </c>
-      <c r="E99">
-        <v>65823</v>
-      </c>
-      <c r="F99">
-        <v>69604</v>
+      <c r="D99" t="s">
+        <v>151</v>
+      </c>
+      <c r="E99" t="s">
+        <v>100</v>
+      </c>
+      <c r="F99" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>1</v>
       </c>
-      <c r="C100" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100">
-        <v>52</v>
-      </c>
-      <c r="E100">
-        <v>55</v>
-      </c>
-      <c r="F100">
-        <v>56</v>
+      <c r="D100" t="s">
+        <v>152</v>
+      </c>
+      <c r="E100" t="s">
+        <v>101</v>
+      </c>
+      <c r="F100" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C101" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101">
-        <v>32684</v>
-      </c>
-      <c r="E101">
-        <v>25233</v>
-      </c>
-      <c r="F101">
-        <v>30884</v>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>153</v>
+      </c>
+      <c r="E101" t="s">
+        <v>102</v>
+      </c>
+      <c r="F101" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102">
-        <v>24</v>
-      </c>
-      <c r="E102">
-        <v>14</v>
-      </c>
-      <c r="F102">
-        <v>25</v>
-      </c>
+      <c r="A102" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C103" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103">
-        <v>9742</v>
-      </c>
-      <c r="E103">
-        <v>8912</v>
-      </c>
-      <c r="F103">
-        <v>9363</v>
+      <c r="A103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -7894,13 +8263,13 @@
         <v>8</v>
       </c>
       <c r="D104">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="E104">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="F104">
-        <v>32</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -7908,13 +8277,13 @@
         <v>7</v>
       </c>
       <c r="D105">
-        <v>15760</v>
+        <v>105224</v>
       </c>
       <c r="E105">
-        <v>12519</v>
+        <v>83034</v>
       </c>
       <c r="F105">
-        <v>14708</v>
+        <v>98558</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -7925,13 +8294,13 @@
         <v>8</v>
       </c>
       <c r="D106">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="E106">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="F106">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -7939,13 +8308,13 @@
         <v>7</v>
       </c>
       <c r="D107">
-        <v>11136</v>
+        <v>73938</v>
       </c>
       <c r="E107">
-        <v>9783</v>
+        <v>65823</v>
       </c>
       <c r="F107">
-        <v>10624</v>
+        <v>69604</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -7956,13 +8325,13 @@
         <v>8</v>
       </c>
       <c r="D108">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E108">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="F108">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -7970,13 +8339,13 @@
         <v>7</v>
       </c>
       <c r="D109">
-        <v>5021</v>
+        <v>32684</v>
       </c>
       <c r="E109">
-        <v>3861</v>
+        <v>25233</v>
       </c>
       <c r="F109">
-        <v>4687</v>
+        <v>30884</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -7987,13 +8356,13 @@
         <v>8</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F110">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -8001,143 +8370,271 @@
         <v>7</v>
       </c>
       <c r="D111">
-        <v>1490</v>
+        <v>9742</v>
       </c>
       <c r="E111">
-        <v>1342</v>
+        <v>8912</v>
       </c>
       <c r="F111">
-        <v>1395</v>
+        <v>9363</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>20</v>
-      </c>
-      <c r="D112" t="s">
-        <v>154</v>
-      </c>
-      <c r="E112" t="s">
-        <v>103</v>
-      </c>
-      <c r="F112" t="s">
-        <v>489</v>
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112">
+        <v>38</v>
+      </c>
+      <c r="E112">
+        <v>25</v>
+      </c>
+      <c r="F112">
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
+      <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113">
+        <v>15760</v>
+      </c>
+      <c r="E113">
+        <v>12519</v>
+      </c>
+      <c r="F113">
+        <v>14708</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>550</v>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114">
+        <v>16</v>
+      </c>
+      <c r="E114">
+        <v>19</v>
+      </c>
+      <c r="F114">
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>21</v>
+      <c r="C115" t="s">
+        <v>7</v>
       </c>
       <c r="D115">
-        <v>93529</v>
+        <v>11136</v>
       </c>
       <c r="E115">
-        <v>103717</v>
+        <v>9783</v>
       </c>
       <c r="F115">
-        <v>93529</v>
+        <v>10624</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>24</v>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
       </c>
       <c r="D116">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="E116">
-        <v>7275</v>
+        <v>7</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>22</v>
+      <c r="C117" t="s">
+        <v>7</v>
       </c>
       <c r="D117">
-        <v>24953</v>
+        <v>5021</v>
       </c>
       <c r="E117">
-        <v>33335</v>
+        <v>3861</v>
       </c>
       <c r="F117">
-        <v>21894</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>23</v>
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
       </c>
       <c r="D118">
-        <v>68486</v>
+        <v>3</v>
       </c>
       <c r="E118">
-        <v>63107</v>
+        <v>2</v>
       </c>
       <c r="F118">
-        <v>71635</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>26</v>
-      </c>
-      <c r="D119" t="s">
-        <v>155</v>
-      </c>
-      <c r="E119" t="s">
-        <v>104</v>
-      </c>
-      <c r="F119" t="s">
-        <v>271</v>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119">
+        <v>1490</v>
+      </c>
+      <c r="E119">
+        <v>1342</v>
+      </c>
+      <c r="F119">
+        <v>1395</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" t="s">
+        <v>154</v>
+      </c>
+      <c r="E120" t="s">
+        <v>103</v>
+      </c>
+      <c r="F120" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123">
+        <v>93529</v>
+      </c>
+      <c r="E123">
+        <v>103717</v>
+      </c>
+      <c r="F123">
+        <v>93529</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124">
+        <v>108</v>
+      </c>
+      <c r="E124">
+        <v>7275</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125">
+        <v>24953</v>
+      </c>
+      <c r="E125">
+        <v>33335</v>
+      </c>
+      <c r="F125">
+        <v>21894</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126">
+        <v>68486</v>
+      </c>
+      <c r="E126">
+        <v>63107</v>
+      </c>
+      <c r="F126">
+        <v>71635</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" t="s">
+        <v>155</v>
+      </c>
+      <c r="E127" t="s">
+        <v>104</v>
+      </c>
+      <c r="F127" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>25</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D128" t="s">
         <v>156</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E128" t="s">
         <v>105</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F128" t="s">
         <v>490</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A121:E121"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A102:E102"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -8161,13 +8658,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -9273,13 +9770,13 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
@@ -9591,13 +10088,13 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -9884,13 +10381,13 @@
       <c r="G112" s="9"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="20" t="s">
+      <c r="A113" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">

--- a/data/CONFRONTO_VERSIONI.xlsx
+++ b/data/CONFRONTO_VERSIONI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="630" documentId="13_ncr:1_{B1E5C654-0C66-42AF-AE99-454FDD4F7F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DB58E2B-2D5B-409F-A93D-F22599039C7E}"/>
+  <xr:revisionPtr revIDLastSave="631" documentId="13_ncr:1_{B1E5C654-0C66-42AF-AE99-454FDD4F7F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17F985CA-4AD2-4E31-9408-0D5754094760}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{58870B00-CDA7-45B2-A026-0B544E698EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Analytical" sheetId="12" r:id="rId1"/>
@@ -1092,7 +1092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1116,34 +1116,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1165,10 +1140,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1517,12 +1510,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="11"/>
       <c r="G1" s="16"/>
     </row>
@@ -1556,10 +1549,10 @@
       <c r="D3">
         <v>190</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="32">
         <v>190</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="4">
         <v>179</v>
       </c>
@@ -1572,10 +1565,10 @@
       <c r="D4">
         <v>137533.33333333334</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="32">
         <v>153820</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="4">
         <v>129759</v>
       </c>
@@ -1591,10 +1584,10 @@
       <c r="D5">
         <v>106.66666666666666</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="32">
         <v>100</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="4">
         <v>100</v>
       </c>
@@ -1607,10 +1600,10 @@
       <c r="D6">
         <v>90031.666666666657</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="32">
         <v>99150</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="4">
         <v>86128</v>
       </c>
@@ -1626,10 +1619,10 @@
       <c r="D7">
         <v>60</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="32">
         <v>100</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="4">
         <v>50</v>
       </c>
@@ -1642,10 +1635,10 @@
       <c r="D8">
         <v>41980</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="32">
         <v>46889.999999999993</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="4">
         <v>39344</v>
       </c>
@@ -1661,10 +1654,10 @@
       <c r="D9">
         <v>16.666666666666668</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="32">
         <v>20</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="4">
         <v>15</v>
       </c>
@@ -1677,10 +1670,10 @@
       <c r="D10">
         <v>10511.666666666668</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="32">
         <v>11600</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="4">
         <v>9920</v>
       </c>
@@ -1698,10 +1691,10 @@
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="32">
         <v>10</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="4">
         <v>15</v>
       </c>
@@ -1714,10 +1707,10 @@
       <c r="D12">
         <v>9138.3333333333339</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="32">
         <v>8740</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="4">
         <v>9383</v>
       </c>
@@ -1733,10 +1726,10 @@
       <c r="D13">
         <v>3.333333333333333</v>
       </c>
-      <c r="E13" s="23">
-        <v>0</v>
-      </c>
-      <c r="F13" s="23"/>
+      <c r="E13" s="32">
+        <v>0</v>
+      </c>
+      <c r="F13" s="32"/>
       <c r="G13" s="4">
         <v>10</v>
       </c>
@@ -1749,10 +1742,10 @@
       <c r="D14">
         <v>4455</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="32">
         <v>3680.0000000000005</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="4">
         <v>4695</v>
       </c>
@@ -1768,10 +1761,10 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="23">
-        <v>0</v>
-      </c>
-      <c r="F15" s="23"/>
+      <c r="E15" s="32">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32"/>
       <c r="G15" s="4">
         <v>5</v>
       </c>
@@ -1784,10 +1777,10 @@
       <c r="D16">
         <v>2831.666666666667</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="32">
         <v>2699.9999999999995</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="4">
         <v>2856</v>
       </c>
@@ -1803,10 +1796,10 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="23">
-        <v>0</v>
-      </c>
-      <c r="F17" s="23"/>
+      <c r="E17" s="32">
+        <v>0</v>
+      </c>
+      <c r="F17" s="32"/>
       <c r="G17" s="4">
         <v>1</v>
       </c>
@@ -1819,10 +1812,10 @@
       <c r="D18">
         <v>385</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="32">
         <v>340</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="4">
         <v>429</v>
       </c>
@@ -1840,10 +1833,10 @@
       <c r="D19">
         <v>23.333333333333336</v>
       </c>
-      <c r="E19" s="23">
-        <v>0</v>
-      </c>
-      <c r="F19" s="23"/>
+      <c r="E19" s="32">
+        <v>0</v>
+      </c>
+      <c r="F19" s="32"/>
       <c r="G19" s="4">
         <v>25</v>
       </c>
@@ -1856,10 +1849,10 @@
       <c r="D20">
         <v>15215</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="32">
         <v>15639.999999999998</v>
       </c>
-      <c r="F20" s="23"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="4">
         <v>14395</v>
       </c>
@@ -1875,10 +1868,10 @@
       <c r="D21">
         <v>5</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="32">
         <v>20</v>
       </c>
-      <c r="F21" s="23"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="4">
         <v>12</v>
       </c>
@@ -1891,10 +1884,10 @@
       <c r="D22">
         <v>8533.3333333333339</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="32">
         <v>8640</v>
       </c>
-      <c r="F22" s="23"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="4">
         <v>8187</v>
       </c>
@@ -1910,10 +1903,10 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="23"/>
+      <c r="E23" s="32">
+        <v>0</v>
+      </c>
+      <c r="F23" s="32"/>
       <c r="G23" s="4">
         <v>4</v>
       </c>
@@ -1926,10 +1919,10 @@
       <c r="D24">
         <v>4540</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="32">
         <v>4780</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="4">
         <v>4307</v>
       </c>
@@ -1945,10 +1938,10 @@
       <c r="D25">
         <v>5</v>
       </c>
-      <c r="E25" s="23">
-        <v>0</v>
-      </c>
-      <c r="F25" s="23"/>
+      <c r="E25" s="32">
+        <v>0</v>
+      </c>
+      <c r="F25" s="32"/>
       <c r="G25" s="4">
         <v>3</v>
       </c>
@@ -1961,10 +1954,10 @@
       <c r="D26">
         <v>770</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="32">
         <v>869.99999999999989</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="4">
         <v>761</v>
       </c>
@@ -1982,10 +1975,10 @@
       <c r="D27">
         <v>19.210526315789451</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="32">
         <v>19.210526315789473</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="4">
         <v>20.391061452513966</v>
       </c>
@@ -1998,10 +1991,10 @@
       <c r="D28">
         <v>2.6539020843431863E-2</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="32">
         <v>2.372903393576908E-2</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="4">
         <v>2.8129070045237708E-2</v>
       </c>
@@ -2017,10 +2010,10 @@
       <c r="D29">
         <v>34.21875000000005</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="32">
         <v>36.5</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="32"/>
       <c r="G29" s="4">
         <v>36.5</v>
       </c>
@@ -2033,10 +2026,10 @@
       <c r="D30">
         <v>4.0541291027231155E-2</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="32">
         <v>3.6812909732728188E-2</v>
       </c>
-      <c r="F30" s="23"/>
+      <c r="F30" s="32"/>
       <c r="G30" s="4">
         <v>4.2378785064090659E-2</v>
       </c>
@@ -2052,10 +2045,10 @@
       <c r="D31">
         <v>60.833333333333186</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="32">
         <v>36.5</v>
       </c>
-      <c r="F31" s="23"/>
+      <c r="F31" s="32"/>
       <c r="G31" s="4">
         <v>73</v>
       </c>
@@ -2068,10 +2061,10 @@
       <c r="D32">
         <v>8.6946164840400186E-2</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="32">
         <v>7.7841757304329282E-2</v>
       </c>
-      <c r="F32" s="23"/>
+      <c r="F32" s="32"/>
       <c r="G32" s="4">
         <v>9.2771451809678732E-2</v>
       </c>
@@ -2087,10 +2080,10 @@
       <c r="D33">
         <v>219</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="32">
         <v>182.5</v>
       </c>
-      <c r="F33" s="23"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="4">
         <v>243.33333333333337</v>
       </c>
@@ -2103,10 +2096,10 @@
       <c r="D34">
         <v>0.34723323291580743</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="32">
         <v>0.31465517241379309</v>
       </c>
-      <c r="F34" s="23"/>
+      <c r="F34" s="32"/>
       <c r="G34" s="4">
         <v>0.36794354838709681</v>
       </c>
@@ -2536,12 +2529,12 @@
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="16"/>
@@ -2573,10 +2566,10 @@
       <c r="D74">
         <v>44190</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="32">
         <v>53220</v>
       </c>
-      <c r="F74" s="23"/>
+      <c r="F74" s="32"/>
       <c r="G74" s="4">
         <v>40606</v>
       </c>
@@ -2589,10 +2582,10 @@
       <c r="D75">
         <v>34305.000000000007</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="32">
         <v>41270</v>
       </c>
-      <c r="F75" s="23"/>
+      <c r="F75" s="32"/>
       <c r="G75" s="4">
         <v>31517</v>
       </c>
@@ -2605,10 +2598,10 @@
       <c r="D76">
         <v>10905</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E76" s="32">
         <v>13130</v>
       </c>
-      <c r="F76" s="23"/>
+      <c r="F76" s="32"/>
       <c r="G76" s="4">
         <v>10137</v>
       </c>
@@ -2621,10 +2614,10 @@
       <c r="D77">
         <v>3181.666666666667</v>
       </c>
-      <c r="E77" s="23">
+      <c r="E77" s="32">
         <v>3900</v>
       </c>
-      <c r="F77" s="23"/>
+      <c r="F77" s="32"/>
       <c r="G77" s="4">
         <v>2933</v>
       </c>
@@ -2639,10 +2632,10 @@
       <c r="D78">
         <v>37613.333333333336</v>
       </c>
-      <c r="E78" s="23">
+      <c r="E78" s="32">
         <v>43030</v>
       </c>
-      <c r="F78" s="23"/>
+      <c r="F78" s="32"/>
       <c r="G78" s="4">
         <v>37426</v>
       </c>
@@ -2655,10 +2648,10 @@
       <c r="D79">
         <v>16570</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E79" s="32">
         <v>18890</v>
       </c>
-      <c r="F79" s="23"/>
+      <c r="F79" s="32"/>
       <c r="G79" s="4">
         <v>16267</v>
       </c>
@@ -2671,10 +2664,10 @@
       <c r="D80">
         <v>4878.3333333333339</v>
       </c>
-      <c r="E80" s="23">
+      <c r="E80" s="32">
         <v>5620</v>
       </c>
-      <c r="F80" s="23"/>
+      <c r="F80" s="32"/>
       <c r="G80" s="4">
         <v>4872</v>
       </c>
@@ -2687,10 +2680,10 @@
       <c r="D81">
         <v>798.33333333333337</v>
       </c>
-      <c r="E81" s="23">
+      <c r="E81" s="32">
         <v>1120</v>
       </c>
-      <c r="F81" s="23"/>
+      <c r="F81" s="32"/>
       <c r="G81" s="4">
         <v>755</v>
       </c>
@@ -2702,8 +2695,8 @@
       <c r="B82" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -2711,8 +2704,8 @@
       <c r="B83" t="s">
         <v>2</v>
       </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -2720,8 +2713,8 @@
       <c r="B84" t="s">
         <v>1</v>
       </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2729,8 +2722,8 @@
       <c r="B85" t="s">
         <v>0</v>
       </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -2830,12 +2823,12 @@
       <c r="G93" s="8"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
       <c r="G94" s="16"/>
@@ -2939,12 +2932,12 @@
       <c r="G104" s="8"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="21" t="s">
+      <c r="A105" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B105" s="22"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
       <c r="G105" s="4"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -3030,14 +3023,30 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="E82:F82"/>
     <mergeCell ref="E83:F83"/>
     <mergeCell ref="E84:F84"/>
@@ -3054,30 +3063,14 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3103,13 +3096,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4215,13 +4208,13 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
@@ -4533,13 +4526,13 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -4697,13 +4690,13 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B105" s="22"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -4836,10 +4829,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55DEE44-1884-45EE-808F-D75FB017A4E0}">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69:E80"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4852,12 +4845,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -5300,12 +5293,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
@@ -5432,14 +5425,14 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="26"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="39"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
@@ -5537,14 +5530,14 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="26"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="39"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
@@ -5564,233 +5557,100 @@
       <c r="D69">
         <v>41954</v>
       </c>
-      <c r="E69">
-        <f>D69/10</f>
-        <v>4195.3999999999996</v>
-      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28" t="s">
+      <c r="B70" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="28"/>
       <c r="D70">
         <v>28865</v>
       </c>
-      <c r="E70">
-        <f t="shared" ref="E70:E80" si="0">D70/10</f>
-        <v>2886.5</v>
-      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28" t="s">
+      <c r="B71" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="28"/>
       <c r="D71">
         <v>12873</v>
       </c>
-      <c r="E71">
-        <f t="shared" si="0"/>
-        <v>1287.3</v>
-      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="28"/>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
       <c r="D72">
         <v>3442</v>
       </c>
-      <c r="E72">
-        <f t="shared" si="0"/>
-        <v>344.2</v>
-      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="28" t="s">
+      <c r="A73" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="28"/>
       <c r="D73">
         <v>14597</v>
       </c>
-      <c r="E73">
-        <f t="shared" si="0"/>
-        <v>1459.7</v>
-      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28" t="s">
+      <c r="B74" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="28"/>
       <c r="D74">
         <v>8633</v>
       </c>
-      <c r="E74">
-        <f t="shared" si="0"/>
-        <v>863.3</v>
-      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28" t="s">
+      <c r="B75" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="28"/>
       <c r="D75">
         <v>4478</v>
       </c>
-      <c r="E75">
-        <f t="shared" si="0"/>
-        <v>447.8</v>
-      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" s="28"/>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
       <c r="D76">
         <v>866</v>
       </c>
-      <c r="E76">
-        <f t="shared" si="0"/>
-        <v>86.6</v>
-      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="28" t="s">
+      <c r="A77" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="28"/>
       <c r="D77">
         <v>41221</v>
       </c>
-      <c r="E77">
-        <f t="shared" si="0"/>
-        <v>4122.1000000000004</v>
-      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28" t="s">
+      <c r="B78" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="28"/>
       <c r="D78">
         <v>24413</v>
       </c>
-      <c r="E78">
-        <f t="shared" si="0"/>
-        <v>2441.3000000000002</v>
-      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28" t="s">
+      <c r="B79" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="28"/>
       <c r="D79">
         <v>12715</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="0"/>
-        <v>1271.5</v>
-      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" s="28"/>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
       <c r="D80">
         <v>2419</v>
       </c>
-      <c r="E80">
-        <f t="shared" si="0"/>
-        <v>241.9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5819,11 +5679,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6550,11 +6410,11 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -6677,11 +6537,11 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
@@ -6804,11 +6664,11 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="22" t="s">
+      <c r="A121" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B121" s="22"/>
-      <c r="C121" s="22"/>
+      <c r="B121" s="37"/>
+      <c r="C121" s="37"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
@@ -6862,7 +6722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6F2CE0-8B3C-405A-AD13-375663635238}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I3" sqref="I3:I26"/>
     </sheetView>
   </sheetViews>
@@ -6872,37 +6732,37 @@
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="24" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="30" t="s">
         <v>296</v>
       </c>
       <c r="I2"/>
@@ -6911,168 +6771,164 @@
       <c r="A3" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="5">
         <v>16.428571000000002</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3">
         <v>1.0975079999999999</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3">
         <v>17.899999999999999</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="20">
         <f>IF(F3&gt;D3+E3,F3-(D3+E3),IF(F3&lt;D3-E3,(D3-E3)-F3,0))</f>
         <v>0.37392099999999573</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="5">
         <v>12455.412698</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4">
         <v>24.133735000000001</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4">
         <v>12987.4</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="20">
         <f t="shared" ref="G4:G33" si="0">IF(F4&gt;D4+E4,F4-(D4+E4),IF(F4&lt;D4-E4,(D4-E4)-F4,0))</f>
         <v>507.85356700000011</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="28" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="5">
         <v>9</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5">
         <v>0.76093699999999997</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="20">
         <f t="shared" si="0"/>
         <v>0.2390629999999998</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="43">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5">
         <v>8186.3492059999999</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6">
         <v>21.310804999999998</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6">
         <v>8623</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="20">
         <f t="shared" si="0"/>
         <v>415.33998900000006</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="43">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5">
         <v>5.2063490000000003</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7">
         <v>0.69068700000000005</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="43">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5">
         <v>3783.3015869999999</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8">
         <v>18.172394000000001</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8">
         <v>3939</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="20">
         <f t="shared" si="0"/>
         <v>137.52601899999991</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="43">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5">
         <v>1.6825399999999999</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9">
         <v>0.37525799999999998</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9">
         <v>1.5</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="43">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
         <v>986.38095199999998</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10">
         <v>7.0633670000000004</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10">
         <v>993.6</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="20">
         <f t="shared" si="0"/>
         <v>0.15568100000007234</v>
       </c>
@@ -7081,168 +6937,164 @@
       <c r="A11" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="5">
         <v>3.1746000000000003E-2</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11">
         <v>4.4509E-2</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11">
         <v>1.5</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="20">
         <f t="shared" si="0"/>
         <v>1.423745</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28" t="s">
+      <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="5">
         <v>941.07936500000005</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12">
         <v>7.858225</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12">
         <v>938.3</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="5">
         <v>0</v>
       </c>
-      <c r="E13" s="28">
-        <v>0</v>
-      </c>
-      <c r="F13" s="28">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28" t="s">
+      <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="5">
         <v>475.39682499999998</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14">
         <v>5.5714769999999998</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14">
         <v>469.5</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="20">
         <f t="shared" si="0"/>
         <v>0.32534799999996267</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
       </c>
-      <c r="E15" s="28">
-        <v>0</v>
-      </c>
-      <c r="F15" s="28">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>0.5</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="20">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28" t="s">
+      <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="5">
         <v>282.82539700000001</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16">
         <v>3.6826840000000001</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16">
         <v>285.60000000000002</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="28" t="s">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="5">
         <v>0</v>
       </c>
-      <c r="E17" s="28">
-        <v>0</v>
-      </c>
-      <c r="F17" s="28">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>0.1</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="20">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28" t="s">
+      <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="5">
         <v>42.126984</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18">
         <v>1.330721</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18">
         <v>42.9</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7251,168 +7103,164 @@
       <c r="A19" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="5">
         <v>0</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19">
         <v>3.1730000000000001E-2</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19">
         <v>2.5</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="20">
         <f t="shared" si="0"/>
         <v>2.46827</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28" t="s">
+      <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="5">
         <v>1435.7777779999999</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20">
         <v>7.9132059999999997</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20">
         <v>1439.5</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
-      <c r="B21" s="28" t="s">
+      <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="5">
         <v>0</v>
       </c>
-      <c r="E21" s="28">
-        <v>0</v>
-      </c>
-      <c r="F21" s="28">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>1.2</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="20">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28" t="s">
+      <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="5">
         <v>818.57142899999997</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22">
         <v>9.0237049999999996</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22">
         <v>818.7</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="5">
         <v>0</v>
       </c>
-      <c r="E23" s="28">
-        <v>0</v>
-      </c>
-      <c r="F23" s="28">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>0.4</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="20">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28" t="s">
+      <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="5">
         <v>429.76190500000001</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24">
         <v>4.6620730000000004</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24">
         <v>430.7</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
-      <c r="B25" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="28" t="s">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="5">
         <v>0</v>
       </c>
-      <c r="E25" s="28">
-        <v>0</v>
-      </c>
-      <c r="F25" s="28">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>0.3</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="20">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28" t="s">
+      <c r="C26" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="5">
         <v>74.984127000000001</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26">
         <v>2.1778460000000002</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26">
         <v>76.099999999999994</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7421,168 +7269,164 @@
       <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="5">
         <v>21.770078000000002</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27">
         <v>0.15081600000000001</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27">
         <v>20.391061452513966</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="20">
         <f t="shared" si="0"/>
         <v>1.2282005474860362</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28" t="s">
+      <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="5">
         <v>2.9321E-2</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28">
         <v>1.0399999999999999E-4</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28">
         <v>2.8129070045237708E-2</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="20">
         <f t="shared" si="0"/>
         <v>1.0879299547622914E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="28" t="s">
+      <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="5">
         <v>40.112430000000003</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29">
         <v>0.397978</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29">
         <v>36.5</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="20">
         <f t="shared" si="0"/>
         <v>3.2144520000000014</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28" t="s">
+      <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="5">
         <v>4.4674999999999999E-2</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30">
         <v>2.9399999999999999E-4</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30">
         <v>4.2378785064090665E-2</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="20">
         <f t="shared" si="0"/>
         <v>2.0022149359093314E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="28" t="s">
+      <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="5">
         <v>83.044183000000004</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31">
         <v>3.098754</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31">
         <v>73</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="20">
         <f t="shared" si="0"/>
         <v>6.9454290000000043</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28" t="s">
+      <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="5">
         <v>9.6095E-2</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32">
         <v>1.9599999999999999E-4</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32">
         <v>9.2771451809678718E-2</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="20">
         <f t="shared" si="0"/>
         <v>3.1275481903212804E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="43">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5">
         <v>200.179982</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33">
         <v>7.7822829999999996</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33">
         <v>243.33333333333337</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="21">
         <f t="shared" si="0"/>
         <v>35.371068333333369</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28" t="s">
+      <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="5">
         <v>0.36931999999999998</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34">
         <v>3.846E-3</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34">
         <v>0.3679435483870967</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="20">
         <f>IF(F34&gt;D34+E34,F34-(D34+E34),IF(F34&lt;D34-E34,(D34-E34)-F34,0))</f>
         <v>0</v>
       </c>
@@ -7591,264 +7435,248 @@
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="5">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="E35" s="28">
-        <v>0</v>
-      </c>
-      <c r="F35" s="29">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="32">
         <v>1460</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G35" s="40">
         <f>IF(F35&gt;D43+E43,F35-(D43+E43),IF(F35&lt;D43-E43,(D43-E43)-F35,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28" t="s">
+      <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="5">
         <v>4097.7327310000001</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36">
         <v>623.23231099999998</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="40"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
-      <c r="B37" s="28" t="s">
+      <c r="B37" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="5">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="E37" s="28">
-        <v>0</v>
-      </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="32"/>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="32"/>
+      <c r="G37" s="40"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28" t="s">
+      <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="5">
         <v>3942.4209049999999</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38">
         <v>596.01755400000002</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="40"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
-      <c r="B39" s="28" t="s">
+      <c r="B39" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="5">
         <v>0</v>
       </c>
-      <c r="E39" s="28">
-        <v>0</v>
-      </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="32"/>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="G39" s="40"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28" t="s">
+      <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="5">
         <v>4045.996048</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40">
         <v>615.03599399999996</v>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="40"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
-      <c r="B41" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="28" t="s">
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="5">
         <v>0</v>
       </c>
-      <c r="E41" s="28">
-        <v>0</v>
-      </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="32"/>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="40"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28" t="s">
+      <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="5">
         <v>264.36756800000001</v>
       </c>
-      <c r="E42" s="28">
+      <c r="E42">
         <v>24.251809999999999</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="40"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
       <c r="D43" s="5">
         <v>1543.8146571249999</v>
       </c>
-      <c r="E43" s="28">
+      <c r="E43">
         <v>232.31720862499969</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="40"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" t="s">
         <v>8</v>
       </c>
       <c r="D44" s="5">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44">
         <v>7.9999999999999996E-6</v>
       </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="30"/>
+      <c r="G44" s="20"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28" t="s">
+      <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="5">
         <v>74599.153778000007</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45">
         <v>11275.159146</v>
       </c>
-      <c r="F45" s="28"/>
-      <c r="G45" s="30"/>
+      <c r="G45" s="20"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
-      <c r="B46" s="28" t="s">
+      <c r="B46" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="5">
         <v>2.8E-5</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="30"/>
+      <c r="G46" s="20"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28" t="s">
+      <c r="C47" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="5">
         <v>51317.041239999999</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47">
         <v>7764.6596410000002</v>
       </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="30"/>
+      <c r="G47" s="20"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
-      <c r="B48" s="28" t="s">
+      <c r="B48" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="5">
         <v>0</v>
       </c>
-      <c r="E48" s="28">
-        <v>0</v>
-      </c>
-      <c r="F48" s="28"/>
-      <c r="G48" s="30"/>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="G48" s="20"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28" t="s">
+      <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="5">
         <v>22624.879687000001</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49">
         <v>3392.401691</v>
       </c>
-      <c r="F49" s="28"/>
-      <c r="G49" s="30"/>
+      <c r="G49" s="20"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
-      <c r="B50" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="28" t="s">
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="5">
         <v>0</v>
       </c>
-      <c r="E50" s="28">
-        <v>0</v>
-      </c>
-      <c r="F50" s="28"/>
-      <c r="G50" s="30"/>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
@@ -7863,18 +7691,18 @@
         <v>70.460891000000004</v>
       </c>
       <c r="F51" s="7"/>
-      <c r="G51" s="33"/>
+      <c r="G51" s="22"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="27"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="34"/>
+      <c r="G52" s="23"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
@@ -7885,86 +7713,82 @@
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="33"/>
+      <c r="G53" s="22"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="28"/>
       <c r="D54" s="5">
         <v>4060.3968249999998</v>
       </c>
-      <c r="E54" s="28">
+      <c r="E54">
         <v>14.208821</v>
       </c>
-      <c r="F54" s="28">
+      <c r="F54">
         <v>4060.6</v>
       </c>
-      <c r="G54" s="30">
+      <c r="G54" s="20">
         <f>IF(F54&gt;D54+E54,F54-(D54+E54),IF(F54&lt;D54-E54,(D54-E54)-F54,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
-      <c r="B55" s="28" t="s">
+      <c r="B55" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="28"/>
       <c r="D55" s="5">
         <v>3166.8412699999999</v>
       </c>
-      <c r="E55" s="28">
+      <c r="E55">
         <v>14.340092</v>
       </c>
-      <c r="F55" s="28">
+      <c r="F55">
         <v>3151.7</v>
       </c>
-      <c r="G55" s="30">
+      <c r="G55" s="20">
         <f t="shared" ref="G55:G64" si="1">IF(F55&gt;D55+E55,F55-(D55+E55),IF(F55&lt;D55-E55,(D55-E55)-F55,0))</f>
         <v>0.80117800000016359</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
-      <c r="B56" s="28" t="s">
+      <c r="B56" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="28"/>
       <c r="D56" s="5">
         <v>1013.555556</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E56">
         <v>8.5236059999999991</v>
       </c>
-      <c r="F56" s="28">
+      <c r="F56">
         <v>1013.7</v>
       </c>
-      <c r="G56" s="30">
+      <c r="G56" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
-      <c r="B57" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="28"/>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
       <c r="D57" s="5">
         <v>289.79365100000001</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E57">
         <v>4.1658980000000003</v>
       </c>
-      <c r="F57" s="28">
+      <c r="F57">
         <v>293.3</v>
       </c>
-      <c r="G57" s="30">
+      <c r="G57" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7973,80 +7797,76 @@
       <c r="A58" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="28"/>
       <c r="D58" s="5">
         <v>3736.3174600000002</v>
       </c>
-      <c r="E58" s="28">
+      <c r="E58">
         <v>15.111469</v>
       </c>
-      <c r="F58" s="28">
+      <c r="F58">
         <v>3742.6</v>
       </c>
-      <c r="G58" s="30">
+      <c r="G58" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
-      <c r="B59" s="28" t="s">
+      <c r="B59" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="28"/>
       <c r="D59" s="5">
         <v>1625.142857</v>
       </c>
-      <c r="E59" s="28">
+      <c r="E59">
         <v>10.164438000000001</v>
       </c>
-      <c r="F59" s="28">
+      <c r="F59">
         <v>1626.7</v>
       </c>
-      <c r="G59" s="30">
+      <c r="G59" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
-      <c r="B60" s="28" t="s">
+      <c r="B60" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="28"/>
       <c r="D60" s="5">
         <v>490.30158699999998</v>
       </c>
-      <c r="E60" s="28">
+      <c r="E60">
         <v>5.2621440000000002</v>
       </c>
-      <c r="F60" s="28">
+      <c r="F60">
         <v>487.2</v>
       </c>
-      <c r="G60" s="30">
+      <c r="G60" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
-      <c r="B61" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="28"/>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
       <c r="D61" s="5">
         <v>74.746032</v>
       </c>
-      <c r="E61" s="28">
+      <c r="E61">
         <v>1.8059069999999999</v>
       </c>
-      <c r="F61" s="28">
+      <c r="F61">
         <v>75.5</v>
       </c>
-      <c r="G61" s="30">
+      <c r="G61" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8055,60 +7875,57 @@
       <c r="A62" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="28"/>
       <c r="D62" s="5">
         <v>9.0015999999999999E-2</v>
       </c>
-      <c r="E62" s="28">
+      <c r="E62">
         <v>4.8999999999999998E-5</v>
       </c>
-      <c r="F62" s="28">
+      <c r="F62">
         <v>8.9888193862975932E-2</v>
       </c>
-      <c r="G62" s="30">
+      <c r="G62" s="20">
         <f>IF(F62&gt;D62+E62,F62-(D62+E62),IF(F62&lt;D62-E62,(D62-E62)-F62,0))</f>
         <v>7.8806137024073353E-5</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
-      <c r="B63" s="28" t="s">
+      <c r="B63" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="28"/>
       <c r="D63" s="5">
         <v>0.114799</v>
       </c>
-      <c r="E63" s="28">
+      <c r="E63">
         <v>8.7000000000000001E-5</v>
       </c>
-      <c r="F63" s="28">
+      <c r="F63">
         <v>0.11581051496018022</v>
       </c>
-      <c r="G63" s="30">
+      <c r="G63" s="20">
         <f t="shared" si="1"/>
         <v>9.245149601802144E-4</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
-      <c r="B64" s="28" t="s">
+      <c r="B64" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="28"/>
       <c r="D64" s="5">
         <v>0.36002800000000001</v>
       </c>
-      <c r="E64" s="28">
+      <c r="E64">
         <v>3.2499999999999999E-4</v>
       </c>
-      <c r="F64" s="28">
+      <c r="F64">
         <v>0.36006708099043105</v>
       </c>
-      <c r="G64" s="30">
+      <c r="G64" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8128,21 +7945,21 @@
       <c r="F65" s="7">
         <v>1.2444595976815547</v>
       </c>
-      <c r="G65" s="33">
+      <c r="G65" s="22">
         <f>IF(F65&gt;D65+E65,F65-(D65+E65),IF(F65&lt;D65-E65,(D65-E65)-F65,0))</f>
         <v>1.1314402318445271E-2</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="27"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="19"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
-      <c r="G66" s="34"/>
+      <c r="G66" s="23"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
@@ -8153,86 +7970,82 @@
       <c r="D67" s="6"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="33"/>
+      <c r="G67" s="22"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="28"/>
       <c r="D68" s="5">
         <v>4197.6031750000002</v>
       </c>
-      <c r="E68" s="28">
+      <c r="E68">
         <v>15.407437</v>
       </c>
-      <c r="F68" s="28">
+      <c r="F68">
         <v>4195.3999999999996</v>
       </c>
-      <c r="G68" s="30">
+      <c r="G68" s="20">
         <f>IF(F68&gt;D68+E68,F68-(D68+E68),IF(F68&lt;D68-E68,(D68-E68)-F68,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="28" t="s">
+      <c r="B69" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="28"/>
       <c r="D69" s="5">
         <v>2876.6507940000001</v>
       </c>
-      <c r="E69" s="28">
+      <c r="E69">
         <v>12.666062999999999</v>
       </c>
-      <c r="F69" s="28">
+      <c r="F69">
         <v>2886.5</v>
       </c>
-      <c r="G69" s="30">
+      <c r="G69" s="20">
         <f t="shared" ref="G69:G79" si="2">IF(F69&gt;D69+E69,F69-(D69+E69),IF(F69&lt;D69-E69,(D69-E69)-F69,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
-      <c r="B70" s="28" t="s">
+      <c r="B70" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="28"/>
       <c r="D70" s="5">
         <v>1290.619048</v>
       </c>
-      <c r="E70" s="28">
+      <c r="E70">
         <v>8.3139489999999991</v>
       </c>
-      <c r="F70" s="28">
+      <c r="F70">
         <v>1287.3</v>
       </c>
-      <c r="G70" s="30">
+      <c r="G70" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
-      <c r="B71" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="28"/>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
       <c r="D71" s="5">
         <v>345.69841300000002</v>
       </c>
-      <c r="E71" s="28">
+      <c r="E71">
         <v>5.0334070000000004</v>
       </c>
-      <c r="F71" s="28">
+      <c r="F71">
         <v>344.2</v>
       </c>
-      <c r="G71" s="30">
+      <c r="G71" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8241,80 +8054,76 @@
       <c r="A72" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="28"/>
       <c r="D72" s="5">
         <v>1461.936508</v>
       </c>
-      <c r="E72" s="28">
+      <c r="E72">
         <v>8.7563999999999993</v>
       </c>
-      <c r="F72" s="28">
+      <c r="F72">
         <v>1459.7</v>
       </c>
-      <c r="G72" s="30">
+      <c r="G72" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
-      <c r="B73" s="28" t="s">
+      <c r="B73" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="28"/>
       <c r="D73" s="5">
         <v>863.85714299999995</v>
       </c>
-      <c r="E73" s="28">
+      <c r="E73">
         <v>6.4948139999999999</v>
       </c>
-      <c r="F73" s="28">
+      <c r="F73">
         <v>863.3</v>
       </c>
-      <c r="G73" s="30">
+      <c r="G73" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
-      <c r="B74" s="28" t="s">
+      <c r="B74" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="28"/>
       <c r="D74" s="5">
         <v>446.74603200000001</v>
       </c>
-      <c r="E74" s="28">
+      <c r="E74">
         <v>5.2210279999999996</v>
       </c>
-      <c r="F74" s="28">
+      <c r="F74">
         <v>447.8</v>
       </c>
-      <c r="G74" s="30">
+      <c r="G74" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="28"/>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
       <c r="D75" s="5">
         <v>85.904762000000005</v>
       </c>
-      <c r="E75" s="28">
+      <c r="E75">
         <v>2.404471</v>
       </c>
-      <c r="F75" s="28">
+      <c r="F75">
         <v>86.6</v>
       </c>
-      <c r="G75" s="30">
+      <c r="G75" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8323,86 +8132,82 @@
       <c r="A76" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="28"/>
       <c r="D76" s="5">
         <v>3091.8412699999999</v>
       </c>
-      <c r="E76" s="28">
+      <c r="E76">
         <v>14.157658</v>
       </c>
-      <c r="F76" s="28">
+      <c r="F76">
         <v>4122.1000000000004</v>
       </c>
-      <c r="G76" s="30">
+      <c r="G76" s="20">
         <f t="shared" si="2"/>
         <v>1016.1010720000004</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
-      <c r="B77" s="28" t="s">
+      <c r="B77" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="28"/>
       <c r="D77" s="5">
         <v>2123.7777780000001</v>
       </c>
-      <c r="E77" s="28">
+      <c r="E77">
         <v>10.841065</v>
       </c>
-      <c r="F77" s="28">
+      <c r="F77">
         <v>2441.3000000000002</v>
       </c>
-      <c r="G77" s="30">
+      <c r="G77" s="20">
         <f t="shared" si="2"/>
         <v>306.68115699999998</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
-      <c r="B78" s="28" t="s">
+      <c r="B78" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="28"/>
       <c r="D78" s="5">
         <v>952.07936500000005</v>
       </c>
-      <c r="E78" s="28">
+      <c r="E78">
         <v>8.0800520000000002</v>
       </c>
-      <c r="F78" s="28">
+      <c r="F78">
         <v>1271.5</v>
       </c>
-      <c r="G78" s="30">
+      <c r="G78" s="20">
         <f t="shared" si="2"/>
         <v>311.34058299999992</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
-      <c r="B79" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="28"/>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
       <c r="D79" s="5">
         <v>239.12698399999999</v>
       </c>
-      <c r="E79" s="28">
+      <c r="E79">
         <v>3.8034729999999999</v>
       </c>
-      <c r="F79" s="28">
+      <c r="F79">
         <v>241.9</v>
       </c>
-      <c r="G79" s="30">
+      <c r="G79" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E81" s="45"/>
+      <c r="E81" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
